--- a/plats_simules.xlsx
+++ b/plats_simules.xlsx
@@ -3090,7 +3090,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>45740</v>
+        <v>45739</v>
       </c>
       <c r="E2" s="2">
         <v>45747</v>
@@ -3522,7 +3522,7 @@
         <v>45740</v>
       </c>
       <c r="E3" s="2">
-        <v>45745</v>
+        <v>45746</v>
       </c>
       <c r="F3">
         <v>21.56</v>
@@ -3551,7 +3551,7 @@
         <v>45740</v>
       </c>
       <c r="E4" s="2">
-        <v>45745</v>
+        <v>45748</v>
       </c>
       <c r="F4">
         <v>24.13</v>
@@ -3577,10 +3577,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>45742</v>
+        <v>45737</v>
       </c>
       <c r="E5" s="2">
-        <v>45747</v>
+        <v>45740</v>
       </c>
       <c r="F5">
         <v>22.57</v>
@@ -3606,10 +3606,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>45741</v>
+        <v>45736</v>
       </c>
       <c r="E6" s="2">
-        <v>45748</v>
+        <v>45740</v>
       </c>
       <c r="F6">
         <v>17.06</v>
@@ -3635,10 +3635,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>45741</v>
+        <v>45739</v>
       </c>
       <c r="E7" s="2">
-        <v>45747</v>
+        <v>45742</v>
       </c>
       <c r="F7">
         <v>11.79</v>
@@ -3667,7 +3667,7 @@
         <v>45740</v>
       </c>
       <c r="E8" s="2">
-        <v>45746</v>
+        <v>45748</v>
       </c>
       <c r="F8">
         <v>14.96</v>
@@ -3693,10 +3693,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="2">
-        <v>45742</v>
+        <v>45736</v>
       </c>
       <c r="E9" s="2">
-        <v>45747</v>
+        <v>45739</v>
       </c>
       <c r="F9">
         <v>8.08</v>
@@ -3725,7 +3725,7 @@
         <v>45740</v>
       </c>
       <c r="E10" s="2">
-        <v>45747</v>
+        <v>45744</v>
       </c>
       <c r="F10">
         <v>13.56</v>
@@ -3751,10 +3751,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="2">
-        <v>45740</v>
+        <v>45737</v>
       </c>
       <c r="E11" s="2">
-        <v>45745</v>
+        <v>45742</v>
       </c>
       <c r="F11">
         <v>20.47</v>
@@ -3780,10 +3780,10 @@
         <v>6</v>
       </c>
       <c r="D12" s="2">
-        <v>45743</v>
+        <v>45739</v>
       </c>
       <c r="E12" s="2">
-        <v>45747</v>
+        <v>45746</v>
       </c>
       <c r="F12">
         <v>12.88</v>
@@ -3809,10 +3809,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="2">
-        <v>45743</v>
+        <v>45740</v>
       </c>
       <c r="E13" s="2">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="F13">
         <v>5.8</v>
@@ -3838,10 +3838,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="2">
-        <v>45741</v>
+        <v>45737</v>
       </c>
       <c r="E14" s="2">
-        <v>45747</v>
+        <v>45742</v>
       </c>
       <c r="F14">
         <v>18.87</v>
@@ -3867,10 +3867,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="2">
-        <v>45740</v>
+        <v>45737</v>
       </c>
       <c r="E15" s="2">
-        <v>45747</v>
+        <v>45742</v>
       </c>
       <c r="F15">
         <v>10.07</v>
@@ -3896,10 +3896,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="2">
-        <v>45740</v>
+        <v>45738</v>
       </c>
       <c r="E16" s="2">
-        <v>45747</v>
+        <v>45741</v>
       </c>
       <c r="F16">
         <v>14.84</v>
@@ -3925,10 +3925,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>45742</v>
+        <v>45735</v>
       </c>
       <c r="E17" s="2">
-        <v>45747</v>
+        <v>45745</v>
       </c>
       <c r="F17">
         <v>24.77</v>
@@ -3954,7 +3954,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="2">
-        <v>45743</v>
+        <v>45740</v>
       </c>
       <c r="E18" s="2">
         <v>45745</v>
@@ -3983,10 +3983,10 @@
         <v>6</v>
       </c>
       <c r="D19" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E19" s="2">
-        <v>45745</v>
+        <v>45749</v>
       </c>
       <c r="F19">
         <v>16.4</v>
@@ -4012,10 +4012,10 @@
         <v>3</v>
       </c>
       <c r="D20" s="2">
-        <v>45743</v>
+        <v>45736</v>
       </c>
       <c r="E20" s="2">
-        <v>45745</v>
+        <v>45742</v>
       </c>
       <c r="F20">
         <v>10.39</v>
@@ -4041,10 +4041,10 @@
         <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>45743</v>
+        <v>45735</v>
       </c>
       <c r="E21" s="2">
-        <v>45747</v>
+        <v>45741</v>
       </c>
       <c r="F21">
         <v>23.09</v>
@@ -4070,10 +4070,10 @@
         <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>45740</v>
+        <v>45736</v>
       </c>
       <c r="E22" s="2">
-        <v>45746</v>
+        <v>45742</v>
       </c>
       <c r="F22">
         <v>8.67</v>
@@ -4099,7 +4099,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="2">
-        <v>45741</v>
+        <v>45738</v>
       </c>
       <c r="E23" s="2">
         <v>45744</v>
@@ -4128,7 +4128,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="2">
-        <v>45740</v>
+        <v>45739</v>
       </c>
       <c r="E24" s="2">
         <v>45744</v>
@@ -4157,10 +4157,10 @@
         <v>2</v>
       </c>
       <c r="D25" s="2">
-        <v>45742</v>
+        <v>45738</v>
       </c>
       <c r="E25" s="2">
-        <v>45746</v>
+        <v>45747</v>
       </c>
       <c r="F25">
         <v>14.2</v>
@@ -4186,10 +4186,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
+        <v>45735</v>
+      </c>
+      <c r="E26" s="2">
         <v>45740</v>
-      </c>
-      <c r="E26" s="2">
-        <v>45744</v>
       </c>
       <c r="F26">
         <v>24.93</v>
@@ -4215,10 +4215,10 @@
         <v>5</v>
       </c>
       <c r="D27" s="2">
-        <v>45740</v>
+        <v>45737</v>
       </c>
       <c r="E27" s="2">
-        <v>45748</v>
+        <v>45745</v>
       </c>
       <c r="F27">
         <v>12.48</v>
@@ -4244,10 +4244,10 @@
         <v>3</v>
       </c>
       <c r="D28" s="2">
-        <v>45741</v>
+        <v>45739</v>
       </c>
       <c r="E28" s="2">
-        <v>45747</v>
+        <v>45742</v>
       </c>
       <c r="F28">
         <v>6.43</v>
@@ -4273,10 +4273,10 @@
         <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>45741</v>
+        <v>45738</v>
       </c>
       <c r="E29" s="2">
-        <v>45746</v>
+        <v>45742</v>
       </c>
       <c r="F29">
         <v>9.949999999999999</v>
@@ -4302,10 +4302,10 @@
         <v>2</v>
       </c>
       <c r="D30" s="2">
+        <v>45735</v>
+      </c>
+      <c r="E30" s="2">
         <v>45742</v>
-      </c>
-      <c r="E30" s="2">
-        <v>45747</v>
       </c>
       <c r="F30">
         <v>10.71</v>
@@ -4331,10 +4331,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="2">
-        <v>45740</v>
+        <v>45739</v>
       </c>
       <c r="E31" s="2">
-        <v>45746</v>
+        <v>45745</v>
       </c>
       <c r="F31">
         <v>6.5</v>
@@ -4360,10 +4360,10 @@
         <v>3</v>
       </c>
       <c r="D32" s="2">
-        <v>45742</v>
+        <v>45737</v>
       </c>
       <c r="E32" s="2">
-        <v>45748</v>
+        <v>45746</v>
       </c>
       <c r="F32">
         <v>24.66</v>
@@ -4389,10 +4389,10 @@
         <v>5</v>
       </c>
       <c r="D33" s="2">
-        <v>45743</v>
+        <v>45738</v>
       </c>
       <c r="E33" s="2">
-        <v>45748</v>
+        <v>45747</v>
       </c>
       <c r="F33">
         <v>10.12</v>
@@ -4418,10 +4418,10 @@
         <v>5</v>
       </c>
       <c r="D34" s="2">
-        <v>45742</v>
+        <v>45735</v>
       </c>
       <c r="E34" s="2">
-        <v>45744</v>
+        <v>45743</v>
       </c>
       <c r="F34">
         <v>7.95</v>
@@ -4447,10 +4447,10 @@
         <v>6</v>
       </c>
       <c r="D35" s="2">
-        <v>45740</v>
+        <v>45737</v>
       </c>
       <c r="E35" s="2">
-        <v>45744</v>
+        <v>45741</v>
       </c>
       <c r="F35">
         <v>12.34</v>
@@ -4476,10 +4476,10 @@
         <v>1</v>
       </c>
       <c r="D36" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E36" s="2">
-        <v>45745</v>
+        <v>45746</v>
       </c>
       <c r="F36">
         <v>24.35</v>
@@ -4505,10 +4505,10 @@
         <v>4</v>
       </c>
       <c r="D37" s="2">
-        <v>45740</v>
+        <v>45736</v>
       </c>
       <c r="E37" s="2">
-        <v>45745</v>
+        <v>45743</v>
       </c>
       <c r="F37">
         <v>24.42</v>
@@ -4534,10 +4534,10 @@
         <v>2</v>
       </c>
       <c r="D38" s="2">
-        <v>45741</v>
+        <v>45736</v>
       </c>
       <c r="E38" s="2">
-        <v>45744</v>
+        <v>45746</v>
       </c>
       <c r="F38">
         <v>4.02</v>
@@ -4563,10 +4563,10 @@
         <v>4</v>
       </c>
       <c r="D39" s="2">
+        <v>45735</v>
+      </c>
+      <c r="E39" s="2">
         <v>45740</v>
-      </c>
-      <c r="E39" s="2">
-        <v>45746</v>
       </c>
       <c r="F39">
         <v>19.69</v>
@@ -4592,10 +4592,10 @@
         <v>6</v>
       </c>
       <c r="D40" s="2">
-        <v>45743</v>
+        <v>45737</v>
       </c>
       <c r="E40" s="2">
-        <v>45747</v>
+        <v>45746</v>
       </c>
       <c r="F40">
         <v>15.58</v>
@@ -4621,10 +4621,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="2">
-        <v>45742</v>
+        <v>45739</v>
       </c>
       <c r="E41" s="2">
-        <v>45748</v>
+        <v>45746</v>
       </c>
       <c r="F41">
         <v>17.85</v>
@@ -4650,10 +4650,10 @@
         <v>1</v>
       </c>
       <c r="D42" s="2">
-        <v>45743</v>
+        <v>45739</v>
       </c>
       <c r="E42" s="2">
-        <v>45747</v>
+        <v>45742</v>
       </c>
       <c r="F42">
         <v>24.46</v>
@@ -4679,10 +4679,10 @@
         <v>4</v>
       </c>
       <c r="D43" s="2">
-        <v>45742</v>
+        <v>45740</v>
       </c>
       <c r="E43" s="2">
-        <v>45745</v>
+        <v>45750</v>
       </c>
       <c r="F43">
         <v>11.62</v>
@@ -4708,10 +4708,10 @@
         <v>3</v>
       </c>
       <c r="D44" s="2">
-        <v>45741</v>
+        <v>45736</v>
       </c>
       <c r="E44" s="2">
-        <v>45747</v>
+        <v>45745</v>
       </c>
       <c r="F44">
         <v>16.45</v>
@@ -4737,10 +4737,10 @@
         <v>1</v>
       </c>
       <c r="D45" s="2">
-        <v>45742</v>
+        <v>45736</v>
       </c>
       <c r="E45" s="2">
-        <v>45745</v>
+        <v>45743</v>
       </c>
       <c r="F45">
         <v>17.46</v>
@@ -4766,10 +4766,10 @@
         <v>4</v>
       </c>
       <c r="D46" s="2">
-        <v>45741</v>
+        <v>45738</v>
       </c>
       <c r="E46" s="2">
-        <v>45745</v>
+        <v>45744</v>
       </c>
       <c r="F46">
         <v>6.68</v>
@@ -4795,10 +4795,10 @@
         <v>1</v>
       </c>
       <c r="D47" s="2">
-        <v>45743</v>
+        <v>45738</v>
       </c>
       <c r="E47" s="2">
-        <v>45746</v>
+        <v>45747</v>
       </c>
       <c r="F47">
         <v>16.11</v>
@@ -4824,10 +4824,10 @@
         <v>6</v>
       </c>
       <c r="D48" s="2">
-        <v>45741</v>
+        <v>45738</v>
       </c>
       <c r="E48" s="2">
-        <v>45745</v>
+        <v>45744</v>
       </c>
       <c r="F48">
         <v>7.81</v>
@@ -4853,10 +4853,10 @@
         <v>5</v>
       </c>
       <c r="D49" s="2">
-        <v>45743</v>
+        <v>45740</v>
       </c>
       <c r="E49" s="2">
-        <v>45748</v>
+        <v>45745</v>
       </c>
       <c r="F49">
         <v>14.05</v>
@@ -4882,10 +4882,10 @@
         <v>4</v>
       </c>
       <c r="D50" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E50" s="2">
-        <v>45746</v>
+        <v>45747</v>
       </c>
       <c r="F50">
         <v>17.61</v>
@@ -4911,10 +4911,10 @@
         <v>6</v>
       </c>
       <c r="D51" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E51" s="2">
-        <v>45744</v>
+        <v>45743</v>
       </c>
       <c r="F51">
         <v>6.15</v>
@@ -4940,10 +4940,10 @@
         <v>6</v>
       </c>
       <c r="D52" s="2">
-        <v>45740</v>
+        <v>45739</v>
       </c>
       <c r="E52" s="2">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="F52">
         <v>13.67</v>
@@ -4969,10 +4969,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="2">
-        <v>45741</v>
+        <v>45739</v>
       </c>
       <c r="E53" s="2">
-        <v>45746</v>
+        <v>45743</v>
       </c>
       <c r="F53">
         <v>19</v>
@@ -4998,10 +4998,10 @@
         <v>3</v>
       </c>
       <c r="D54" s="2">
-        <v>45742</v>
+        <v>45739</v>
       </c>
       <c r="E54" s="2">
-        <v>45745</v>
+        <v>45746</v>
       </c>
       <c r="F54">
         <v>4.64</v>
@@ -5027,10 +5027,10 @@
         <v>4</v>
       </c>
       <c r="D55" s="2">
-        <v>45741</v>
+        <v>45735</v>
       </c>
       <c r="E55" s="2">
-        <v>45746</v>
+        <v>45738</v>
       </c>
       <c r="F55">
         <v>5.21</v>
@@ -5056,10 +5056,10 @@
         <v>4</v>
       </c>
       <c r="D56" s="2">
-        <v>45741</v>
+        <v>45736</v>
       </c>
       <c r="E56" s="2">
-        <v>45748</v>
+        <v>45746</v>
       </c>
       <c r="F56">
         <v>23.85</v>
@@ -5085,10 +5085,10 @@
         <v>6</v>
       </c>
       <c r="D57" s="2">
+        <v>45739</v>
+      </c>
+      <c r="E57" s="2">
         <v>45743</v>
-      </c>
-      <c r="E57" s="2">
-        <v>45746</v>
       </c>
       <c r="F57">
         <v>24.8</v>
@@ -5114,10 +5114,10 @@
         <v>4</v>
       </c>
       <c r="D58" s="2">
+        <v>45736</v>
+      </c>
+      <c r="E58" s="2">
         <v>45740</v>
-      </c>
-      <c r="E58" s="2">
-        <v>45744</v>
       </c>
       <c r="F58">
         <v>11</v>
@@ -5143,10 +5143,10 @@
         <v>6</v>
       </c>
       <c r="D59" s="2">
-        <v>45740</v>
+        <v>45735</v>
       </c>
       <c r="E59" s="2">
-        <v>45744</v>
+        <v>45739</v>
       </c>
       <c r="F59">
         <v>16.11</v>
@@ -5172,10 +5172,10 @@
         <v>5</v>
       </c>
       <c r="D60" s="2">
-        <v>45741</v>
+        <v>45737</v>
       </c>
       <c r="E60" s="2">
-        <v>45745</v>
+        <v>45746</v>
       </c>
       <c r="F60">
         <v>17.57</v>
@@ -5201,10 +5201,10 @@
         <v>5</v>
       </c>
       <c r="D61" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E61" s="2">
-        <v>45746</v>
+        <v>45744</v>
       </c>
       <c r="F61">
         <v>12.69</v>
@@ -5230,10 +5230,10 @@
         <v>3</v>
       </c>
       <c r="D62" s="2">
-        <v>45741</v>
+        <v>45736</v>
       </c>
       <c r="E62" s="2">
-        <v>45744</v>
+        <v>45745</v>
       </c>
       <c r="F62">
         <v>18.81</v>
@@ -5259,10 +5259,10 @@
         <v>2</v>
       </c>
       <c r="D63" s="2">
-        <v>45742</v>
+        <v>45736</v>
       </c>
       <c r="E63" s="2">
-        <v>45747</v>
+        <v>45745</v>
       </c>
       <c r="F63">
         <v>15.58</v>
@@ -5288,10 +5288,10 @@
         <v>2</v>
       </c>
       <c r="D64" s="2">
-        <v>45743</v>
+        <v>45740</v>
       </c>
       <c r="E64" s="2">
-        <v>45748</v>
+        <v>45745</v>
       </c>
       <c r="F64">
         <v>16.41</v>
@@ -5317,7 +5317,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E65" s="2">
         <v>45744</v>
@@ -5346,10 +5346,10 @@
         <v>3</v>
       </c>
       <c r="D66" s="2">
-        <v>45743</v>
+        <v>45737</v>
       </c>
       <c r="E66" s="2">
-        <v>45747</v>
+        <v>45745</v>
       </c>
       <c r="F66">
         <v>24.51</v>
@@ -5375,10 +5375,10 @@
         <v>5</v>
       </c>
       <c r="D67" s="2">
-        <v>45743</v>
+        <v>45740</v>
       </c>
       <c r="E67" s="2">
-        <v>45747</v>
+        <v>45746</v>
       </c>
       <c r="F67">
         <v>15.3</v>
@@ -5404,10 +5404,10 @@
         <v>4</v>
       </c>
       <c r="D68" s="2">
-        <v>45741</v>
+        <v>45736</v>
       </c>
       <c r="E68" s="2">
-        <v>45744</v>
+        <v>45745</v>
       </c>
       <c r="F68">
         <v>15.02</v>
@@ -5433,10 +5433,10 @@
         <v>2</v>
       </c>
       <c r="D69" s="2">
-        <v>45742</v>
+        <v>45736</v>
       </c>
       <c r="E69" s="2">
-        <v>45747</v>
+        <v>45743</v>
       </c>
       <c r="F69">
         <v>14.1</v>
@@ -5462,10 +5462,10 @@
         <v>6</v>
       </c>
       <c r="D70" s="2">
-        <v>45740</v>
+        <v>45739</v>
       </c>
       <c r="E70" s="2">
-        <v>45748</v>
+        <v>45749</v>
       </c>
       <c r="F70">
         <v>13.92</v>
@@ -5491,10 +5491,10 @@
         <v>1</v>
       </c>
       <c r="D71" s="2">
-        <v>45740</v>
+        <v>45739</v>
       </c>
       <c r="E71" s="2">
-        <v>45747</v>
+        <v>45749</v>
       </c>
       <c r="F71">
         <v>19.25</v>
@@ -5520,10 +5520,10 @@
         <v>4</v>
       </c>
       <c r="D72" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E72" s="2">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="F72">
         <v>5.81</v>
@@ -5549,7 +5549,7 @@
         <v>6</v>
       </c>
       <c r="D73" s="2">
-        <v>45740</v>
+        <v>45737</v>
       </c>
       <c r="E73" s="2">
         <v>45746</v>
@@ -5578,10 +5578,10 @@
         <v>2</v>
       </c>
       <c r="D74" s="2">
-        <v>45741</v>
+        <v>45738</v>
       </c>
       <c r="E74" s="2">
-        <v>45744</v>
+        <v>45746</v>
       </c>
       <c r="F74">
         <v>22.09</v>
@@ -5607,10 +5607,10 @@
         <v>4</v>
       </c>
       <c r="D75" s="2">
-        <v>45741</v>
+        <v>45737</v>
       </c>
       <c r="E75" s="2">
-        <v>45745</v>
+        <v>45742</v>
       </c>
       <c r="F75">
         <v>16.39</v>
@@ -5636,10 +5636,10 @@
         <v>3</v>
       </c>
       <c r="D76" s="2">
-        <v>45742</v>
+        <v>45740</v>
       </c>
       <c r="E76" s="2">
-        <v>45744</v>
+        <v>45745</v>
       </c>
       <c r="F76">
         <v>10.36</v>
@@ -5665,10 +5665,10 @@
         <v>2</v>
       </c>
       <c r="D77" s="2">
-        <v>45743</v>
+        <v>45738</v>
       </c>
       <c r="E77" s="2">
-        <v>45748</v>
+        <v>45747</v>
       </c>
       <c r="F77">
         <v>9.65</v>
@@ -5694,10 +5694,10 @@
         <v>6</v>
       </c>
       <c r="D78" s="2">
-        <v>45742</v>
+        <v>45737</v>
       </c>
       <c r="E78" s="2">
-        <v>45747</v>
+        <v>45740</v>
       </c>
       <c r="F78">
         <v>13.45</v>
@@ -5723,10 +5723,10 @@
         <v>6</v>
       </c>
       <c r="D79" s="2">
+        <v>45736</v>
+      </c>
+      <c r="E79" s="2">
         <v>45740</v>
-      </c>
-      <c r="E79" s="2">
-        <v>45748</v>
       </c>
       <c r="F79">
         <v>20.79</v>
@@ -5752,10 +5752,10 @@
         <v>2</v>
       </c>
       <c r="D80" s="2">
-        <v>45741</v>
+        <v>45735</v>
       </c>
       <c r="E80" s="2">
-        <v>45746</v>
+        <v>45738</v>
       </c>
       <c r="F80">
         <v>23.16</v>
@@ -5781,10 +5781,10 @@
         <v>5</v>
       </c>
       <c r="D81" s="2">
+        <v>45740</v>
+      </c>
+      <c r="E81" s="2">
         <v>45743</v>
-      </c>
-      <c r="E81" s="2">
-        <v>45746</v>
       </c>
       <c r="F81">
         <v>14.01</v>
@@ -5810,10 +5810,10 @@
         <v>4</v>
       </c>
       <c r="D82" s="2">
-        <v>45740</v>
+        <v>45738</v>
       </c>
       <c r="E82" s="2">
-        <v>45748</v>
+        <v>45747</v>
       </c>
       <c r="F82">
         <v>10.58</v>
@@ -5839,10 +5839,10 @@
         <v>1</v>
       </c>
       <c r="D83" s="2">
-        <v>45743</v>
+        <v>45736</v>
       </c>
       <c r="E83" s="2">
-        <v>45744</v>
+        <v>45742</v>
       </c>
       <c r="F83">
         <v>6.77</v>
@@ -5868,7 +5868,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="2">
-        <v>45742</v>
+        <v>45738</v>
       </c>
       <c r="E84" s="2">
         <v>45748</v>
@@ -5897,10 +5897,10 @@
         <v>6</v>
       </c>
       <c r="D85" s="2">
+        <v>45736</v>
+      </c>
+      <c r="E85" s="2">
         <v>45741</v>
-      </c>
-      <c r="E85" s="2">
-        <v>45746</v>
       </c>
       <c r="F85">
         <v>8.27</v>
@@ -5926,10 +5926,10 @@
         <v>4</v>
       </c>
       <c r="D86" s="2">
-        <v>45743</v>
+        <v>45736</v>
       </c>
       <c r="E86" s="2">
-        <v>45747</v>
+        <v>45740</v>
       </c>
       <c r="F86">
         <v>16.73</v>
@@ -5955,10 +5955,10 @@
         <v>2</v>
       </c>
       <c r="D87" s="2">
-        <v>45740</v>
+        <v>45738</v>
       </c>
       <c r="E87" s="2">
-        <v>45746</v>
+        <v>45745</v>
       </c>
       <c r="F87">
         <v>7.89</v>
@@ -5984,10 +5984,10 @@
         <v>5</v>
       </c>
       <c r="D88" s="2">
-        <v>45740</v>
+        <v>45738</v>
       </c>
       <c r="E88" s="2">
-        <v>45747</v>
+        <v>45746</v>
       </c>
       <c r="F88">
         <v>24.19</v>
@@ -6013,10 +6013,10 @@
         <v>1</v>
       </c>
       <c r="D89" s="2">
-        <v>45742</v>
+        <v>45736</v>
       </c>
       <c r="E89" s="2">
-        <v>45747</v>
+        <v>45746</v>
       </c>
       <c r="F89">
         <v>6.99</v>
@@ -6042,10 +6042,10 @@
         <v>4</v>
       </c>
       <c r="D90" s="2">
-        <v>45743</v>
+        <v>45737</v>
       </c>
       <c r="E90" s="2">
-        <v>45748</v>
+        <v>45742</v>
       </c>
       <c r="F90">
         <v>14.95</v>
@@ -6071,7 +6071,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="2">
-        <v>45743</v>
+        <v>45735</v>
       </c>
       <c r="E91" s="2">
         <v>45744</v>
@@ -6100,10 +6100,10 @@
         <v>3</v>
       </c>
       <c r="D92" s="2">
-        <v>45740</v>
+        <v>45735</v>
       </c>
       <c r="E92" s="2">
-        <v>45746</v>
+        <v>45738</v>
       </c>
       <c r="F92">
         <v>19.22</v>
@@ -6129,10 +6129,10 @@
         <v>2</v>
       </c>
       <c r="D93" s="2">
-        <v>45740</v>
+        <v>45737</v>
       </c>
       <c r="E93" s="2">
-        <v>45747</v>
+        <v>45742</v>
       </c>
       <c r="F93">
         <v>8.550000000000001</v>
@@ -6158,10 +6158,10 @@
         <v>3</v>
       </c>
       <c r="D94" s="2">
-        <v>45743</v>
+        <v>45735</v>
       </c>
       <c r="E94" s="2">
-        <v>45744</v>
+        <v>45741</v>
       </c>
       <c r="F94">
         <v>18.5</v>
@@ -6187,10 +6187,10 @@
         <v>3</v>
       </c>
       <c r="D95" s="2">
-        <v>45743</v>
+        <v>45737</v>
       </c>
       <c r="E95" s="2">
-        <v>45748</v>
+        <v>45747</v>
       </c>
       <c r="F95">
         <v>5.78</v>
@@ -6216,10 +6216,10 @@
         <v>3</v>
       </c>
       <c r="D96" s="2">
-        <v>45743</v>
+        <v>45740</v>
       </c>
       <c r="E96" s="2">
-        <v>45744</v>
+        <v>45745</v>
       </c>
       <c r="F96">
         <v>17.21</v>
@@ -6245,10 +6245,10 @@
         <v>6</v>
       </c>
       <c r="D97" s="2">
-        <v>45743</v>
+        <v>45736</v>
       </c>
       <c r="E97" s="2">
-        <v>45745</v>
+        <v>45742</v>
       </c>
       <c r="F97">
         <v>5.75</v>
@@ -6274,10 +6274,10 @@
         <v>1</v>
       </c>
       <c r="D98" s="2">
-        <v>45743</v>
+        <v>45740</v>
       </c>
       <c r="E98" s="2">
-        <v>45748</v>
+        <v>45746</v>
       </c>
       <c r="F98">
         <v>18.86</v>
@@ -6303,10 +6303,10 @@
         <v>1</v>
       </c>
       <c r="D99" s="2">
-        <v>45741</v>
+        <v>45739</v>
       </c>
       <c r="E99" s="2">
-        <v>45746</v>
+        <v>45743</v>
       </c>
       <c r="F99">
         <v>4.26</v>
@@ -6332,10 +6332,10 @@
         <v>4</v>
       </c>
       <c r="D100" s="2">
-        <v>45741</v>
+        <v>45737</v>
       </c>
       <c r="E100" s="2">
-        <v>45745</v>
+        <v>45742</v>
       </c>
       <c r="F100">
         <v>22.63</v>
@@ -6361,10 +6361,10 @@
         <v>5</v>
       </c>
       <c r="D101" s="2">
+        <v>45736</v>
+      </c>
+      <c r="E101" s="2">
         <v>45742</v>
-      </c>
-      <c r="E101" s="2">
-        <v>45748</v>
       </c>
       <c r="F101">
         <v>8.67</v>
@@ -6390,10 +6390,10 @@
         <v>5</v>
       </c>
       <c r="D102" s="2">
-        <v>45740</v>
+        <v>45735</v>
       </c>
       <c r="E102" s="2">
-        <v>45748</v>
+        <v>45741</v>
       </c>
       <c r="F102">
         <v>15.65</v>
@@ -6419,10 +6419,10 @@
         <v>6</v>
       </c>
       <c r="D103" s="2">
-        <v>45740</v>
+        <v>45737</v>
       </c>
       <c r="E103" s="2">
-        <v>45747</v>
+        <v>45745</v>
       </c>
       <c r="F103">
         <v>17.67</v>
@@ -6448,10 +6448,10 @@
         <v>6</v>
       </c>
       <c r="D104" s="2">
-        <v>45741</v>
+        <v>45736</v>
       </c>
       <c r="E104" s="2">
-        <v>45747</v>
+        <v>45739</v>
       </c>
       <c r="F104">
         <v>12.14</v>
@@ -6477,10 +6477,10 @@
         <v>5</v>
       </c>
       <c r="D105" s="2">
-        <v>45741</v>
+        <v>45738</v>
       </c>
       <c r="E105" s="2">
-        <v>45746</v>
+        <v>45743</v>
       </c>
       <c r="F105">
         <v>19.42</v>
@@ -6506,10 +6506,10 @@
         <v>5</v>
       </c>
       <c r="D106" s="2">
-        <v>45743</v>
+        <v>45740</v>
       </c>
       <c r="E106" s="2">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="F106">
         <v>22.64</v>
@@ -6564,10 +6564,10 @@
         <v>5</v>
       </c>
       <c r="D108" s="2">
-        <v>45741</v>
+        <v>45737</v>
       </c>
       <c r="E108" s="2">
-        <v>45748</v>
+        <v>45740</v>
       </c>
       <c r="F108">
         <v>24.27</v>
@@ -6593,10 +6593,10 @@
         <v>5</v>
       </c>
       <c r="D109" s="2">
-        <v>45741</v>
+        <v>45737</v>
       </c>
       <c r="E109" s="2">
-        <v>45747</v>
+        <v>45744</v>
       </c>
       <c r="F109">
         <v>16.31</v>
@@ -6622,10 +6622,10 @@
         <v>2</v>
       </c>
       <c r="D110" s="2">
-        <v>45743</v>
+        <v>45736</v>
       </c>
       <c r="E110" s="2">
-        <v>45748</v>
+        <v>45739</v>
       </c>
       <c r="F110">
         <v>8.619999999999999</v>
@@ -6651,10 +6651,10 @@
         <v>6</v>
       </c>
       <c r="D111" s="2">
-        <v>45742</v>
+        <v>45736</v>
       </c>
       <c r="E111" s="2">
-        <v>45748</v>
+        <v>45739</v>
       </c>
       <c r="F111">
         <v>18.28</v>
@@ -6680,10 +6680,10 @@
         <v>6</v>
       </c>
       <c r="D112" s="2">
-        <v>45741</v>
+        <v>45737</v>
       </c>
       <c r="E112" s="2">
-        <v>45748</v>
+        <v>45745</v>
       </c>
       <c r="F112">
         <v>18.57</v>
@@ -6709,10 +6709,10 @@
         <v>4</v>
       </c>
       <c r="D113" s="2">
-        <v>45743</v>
+        <v>45735</v>
       </c>
       <c r="E113" s="2">
-        <v>45748</v>
+        <v>45738</v>
       </c>
       <c r="F113">
         <v>8.26</v>
@@ -6738,10 +6738,10 @@
         <v>4</v>
       </c>
       <c r="D114" s="2">
-        <v>45742</v>
+        <v>45736</v>
       </c>
       <c r="E114" s="2">
-        <v>45746</v>
+        <v>45745</v>
       </c>
       <c r="F114">
         <v>13.9</v>
@@ -6767,10 +6767,10 @@
         <v>2</v>
       </c>
       <c r="D115" s="2">
-        <v>45741</v>
+        <v>45739</v>
       </c>
       <c r="E115" s="2">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="F115">
         <v>8.68</v>
@@ -6796,10 +6796,10 @@
         <v>1</v>
       </c>
       <c r="D116" s="2">
+        <v>45737</v>
+      </c>
+      <c r="E116" s="2">
         <v>45742</v>
-      </c>
-      <c r="E116" s="2">
-        <v>45748</v>
       </c>
       <c r="F116">
         <v>20.37</v>
@@ -6825,10 +6825,10 @@
         <v>6</v>
       </c>
       <c r="D117" s="2">
-        <v>45742</v>
+        <v>45736</v>
       </c>
       <c r="E117" s="2">
-        <v>45748</v>
+        <v>45744</v>
       </c>
       <c r="F117">
         <v>13.95</v>
@@ -6854,10 +6854,10 @@
         <v>2</v>
       </c>
       <c r="D118" s="2">
-        <v>45743</v>
+        <v>45738</v>
       </c>
       <c r="E118" s="2">
-        <v>45746</v>
+        <v>45741</v>
       </c>
       <c r="F118">
         <v>11.41</v>
@@ -6883,10 +6883,10 @@
         <v>1</v>
       </c>
       <c r="D119" s="2">
-        <v>45741</v>
+        <v>45737</v>
       </c>
       <c r="E119" s="2">
-        <v>45745</v>
+        <v>45747</v>
       </c>
       <c r="F119">
         <v>15.55</v>
@@ -6912,10 +6912,10 @@
         <v>4</v>
       </c>
       <c r="D120" s="2">
-        <v>45741</v>
+        <v>45738</v>
       </c>
       <c r="E120" s="2">
-        <v>45744</v>
+        <v>45742</v>
       </c>
       <c r="F120">
         <v>21.07</v>
@@ -6941,10 +6941,10 @@
         <v>2</v>
       </c>
       <c r="D121" s="2">
+        <v>45736</v>
+      </c>
+      <c r="E121" s="2">
         <v>45741</v>
-      </c>
-      <c r="E121" s="2">
-        <v>45748</v>
       </c>
       <c r="F121">
         <v>23.16</v>
@@ -6970,10 +6970,10 @@
         <v>3</v>
       </c>
       <c r="D122" s="2">
-        <v>45743</v>
+        <v>45739</v>
       </c>
       <c r="E122" s="2">
-        <v>45747</v>
+        <v>45745</v>
       </c>
       <c r="F122">
         <v>19.97</v>
@@ -6999,10 +6999,10 @@
         <v>1</v>
       </c>
       <c r="D123" s="2">
-        <v>45742</v>
+        <v>45735</v>
       </c>
       <c r="E123" s="2">
-        <v>45748</v>
+        <v>45738</v>
       </c>
       <c r="F123">
         <v>6.7</v>
@@ -7028,10 +7028,10 @@
         <v>4</v>
       </c>
       <c r="D124" s="2">
-        <v>45743</v>
+        <v>45737</v>
       </c>
       <c r="E124" s="2">
-        <v>45745</v>
+        <v>45740</v>
       </c>
       <c r="F124">
         <v>10.45</v>
@@ -7057,10 +7057,10 @@
         <v>6</v>
       </c>
       <c r="D125" s="2">
-        <v>45740</v>
+        <v>45739</v>
       </c>
       <c r="E125" s="2">
-        <v>45745</v>
+        <v>45742</v>
       </c>
       <c r="F125">
         <v>23.16</v>
@@ -7086,10 +7086,10 @@
         <v>5</v>
       </c>
       <c r="D126" s="2">
-        <v>45740</v>
+        <v>45739</v>
       </c>
       <c r="E126" s="2">
-        <v>45748</v>
+        <v>45743</v>
       </c>
       <c r="F126">
         <v>23.53</v>
@@ -7115,10 +7115,10 @@
         <v>6</v>
       </c>
       <c r="D127" s="2">
-        <v>45741</v>
+        <v>45737</v>
       </c>
       <c r="E127" s="2">
-        <v>45746</v>
+        <v>45744</v>
       </c>
       <c r="F127">
         <v>24.94</v>
@@ -7144,10 +7144,10 @@
         <v>6</v>
       </c>
       <c r="D128" s="2">
-        <v>45742</v>
+        <v>45737</v>
       </c>
       <c r="E128" s="2">
-        <v>45745</v>
+        <v>45743</v>
       </c>
       <c r="F128">
         <v>21.12</v>
@@ -7173,10 +7173,10 @@
         <v>3</v>
       </c>
       <c r="D129" s="2">
-        <v>45742</v>
+        <v>45735</v>
       </c>
       <c r="E129" s="2">
-        <v>45744</v>
+        <v>45738</v>
       </c>
       <c r="F129">
         <v>4.6</v>
@@ -7202,10 +7202,10 @@
         <v>6</v>
       </c>
       <c r="D130" s="2">
-        <v>45740</v>
+        <v>45735</v>
       </c>
       <c r="E130" s="2">
-        <v>45745</v>
+        <v>45741</v>
       </c>
       <c r="F130">
         <v>7.22</v>
@@ -7234,7 +7234,7 @@
         <v>45740</v>
       </c>
       <c r="E131" s="2">
-        <v>45746</v>
+        <v>45749</v>
       </c>
       <c r="F131">
         <v>18.71</v>
@@ -7260,10 +7260,10 @@
         <v>6</v>
       </c>
       <c r="D132" s="2">
-        <v>45741</v>
+        <v>45736</v>
       </c>
       <c r="E132" s="2">
-        <v>45746</v>
+        <v>45739</v>
       </c>
       <c r="F132">
         <v>11.8</v>
@@ -7289,10 +7289,10 @@
         <v>1</v>
       </c>
       <c r="D133" s="2">
+        <v>45738</v>
+      </c>
+      <c r="E133" s="2">
         <v>45741</v>
-      </c>
-      <c r="E133" s="2">
-        <v>45748</v>
       </c>
       <c r="F133">
         <v>10.77</v>
@@ -7318,10 +7318,10 @@
         <v>5</v>
       </c>
       <c r="D134" s="2">
-        <v>45742</v>
+        <v>45739</v>
       </c>
       <c r="E134" s="2">
-        <v>45747</v>
+        <v>45743</v>
       </c>
       <c r="F134">
         <v>7.64</v>
@@ -7347,10 +7347,10 @@
         <v>1</v>
       </c>
       <c r="D135" s="2">
-        <v>45741</v>
+        <v>45736</v>
       </c>
       <c r="E135" s="2">
-        <v>45747</v>
+        <v>45746</v>
       </c>
       <c r="F135">
         <v>5.79</v>
@@ -7376,10 +7376,10 @@
         <v>2</v>
       </c>
       <c r="D136" s="2">
-        <v>45740</v>
+        <v>45738</v>
       </c>
       <c r="E136" s="2">
-        <v>45748</v>
+        <v>45742</v>
       </c>
       <c r="F136">
         <v>21.98</v>
@@ -7405,10 +7405,10 @@
         <v>6</v>
       </c>
       <c r="D137" s="2">
-        <v>45741</v>
+        <v>45739</v>
       </c>
       <c r="E137" s="2">
-        <v>45744</v>
+        <v>45745</v>
       </c>
       <c r="F137">
         <v>8.609999999999999</v>
@@ -7434,10 +7434,10 @@
         <v>6</v>
       </c>
       <c r="D138" s="2">
-        <v>45743</v>
+        <v>45738</v>
       </c>
       <c r="E138" s="2">
-        <v>45747</v>
+        <v>45745</v>
       </c>
       <c r="F138">
         <v>15.84</v>
@@ -7463,7 +7463,7 @@
         <v>4</v>
       </c>
       <c r="D139" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E139" s="2">
         <v>45744</v>
@@ -7492,10 +7492,10 @@
         <v>6</v>
       </c>
       <c r="D140" s="2">
+        <v>45739</v>
+      </c>
+      <c r="E140" s="2">
         <v>45743</v>
-      </c>
-      <c r="E140" s="2">
-        <v>45747</v>
       </c>
       <c r="F140">
         <v>16.56</v>
@@ -7521,10 +7521,10 @@
         <v>2</v>
       </c>
       <c r="D141" s="2">
-        <v>45740</v>
+        <v>45738</v>
       </c>
       <c r="E141" s="2">
-        <v>45745</v>
+        <v>45743</v>
       </c>
       <c r="F141">
         <v>19.26</v>
@@ -7553,7 +7553,7 @@
         <v>45740</v>
       </c>
       <c r="E142" s="2">
-        <v>45744</v>
+        <v>45748</v>
       </c>
       <c r="F142">
         <v>12.71</v>
@@ -7579,10 +7579,10 @@
         <v>4</v>
       </c>
       <c r="D143" s="2">
-        <v>45741</v>
+        <v>45737</v>
       </c>
       <c r="E143" s="2">
-        <v>45746</v>
+        <v>45744</v>
       </c>
       <c r="F143">
         <v>13.81</v>
@@ -7608,10 +7608,10 @@
         <v>4</v>
       </c>
       <c r="D144" s="2">
-        <v>45742</v>
+        <v>45738</v>
       </c>
       <c r="E144" s="2">
-        <v>45748</v>
+        <v>45744</v>
       </c>
       <c r="F144">
         <v>23.15</v>
@@ -7637,10 +7637,10 @@
         <v>3</v>
       </c>
       <c r="D145" s="2">
+        <v>45738</v>
+      </c>
+      <c r="E145" s="2">
         <v>45743</v>
-      </c>
-      <c r="E145" s="2">
-        <v>45746</v>
       </c>
       <c r="F145">
         <v>6.58</v>
@@ -7666,10 +7666,10 @@
         <v>2</v>
       </c>
       <c r="D146" s="2">
-        <v>45742</v>
+        <v>45738</v>
       </c>
       <c r="E146" s="2">
-        <v>45745</v>
+        <v>45748</v>
       </c>
       <c r="F146">
         <v>22.97</v>
@@ -7695,10 +7695,10 @@
         <v>6</v>
       </c>
       <c r="D147" s="2">
+        <v>45736</v>
+      </c>
+      <c r="E147" s="2">
         <v>45741</v>
-      </c>
-      <c r="E147" s="2">
-        <v>45746</v>
       </c>
       <c r="F147">
         <v>4.86</v>
@@ -7724,10 +7724,10 @@
         <v>3</v>
       </c>
       <c r="D148" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E148" s="2">
-        <v>45745</v>
+        <v>45746</v>
       </c>
       <c r="F148">
         <v>12.13</v>
@@ -7753,10 +7753,10 @@
         <v>4</v>
       </c>
       <c r="D149" s="2">
-        <v>45742</v>
+        <v>45736</v>
       </c>
       <c r="E149" s="2">
-        <v>45748</v>
+        <v>45741</v>
       </c>
       <c r="F149">
         <v>9.380000000000001</v>
@@ -7782,10 +7782,10 @@
         <v>3</v>
       </c>
       <c r="D150" s="2">
-        <v>45742</v>
+        <v>45738</v>
       </c>
       <c r="E150" s="2">
-        <v>45744</v>
+        <v>45741</v>
       </c>
       <c r="F150">
         <v>24.67</v>
@@ -7811,10 +7811,10 @@
         <v>2</v>
       </c>
       <c r="D151" s="2">
-        <v>45742</v>
+        <v>45738</v>
       </c>
       <c r="E151" s="2">
-        <v>45747</v>
+        <v>45745</v>
       </c>
       <c r="F151">
         <v>17.8</v>
@@ -7840,10 +7840,10 @@
         <v>4</v>
       </c>
       <c r="D152" s="2">
-        <v>45743</v>
+        <v>45740</v>
       </c>
       <c r="E152" s="2">
-        <v>45747</v>
+        <v>45750</v>
       </c>
       <c r="F152">
         <v>19.19</v>
@@ -7869,10 +7869,10 @@
         <v>1</v>
       </c>
       <c r="D153" s="2">
-        <v>45740</v>
+        <v>45739</v>
       </c>
       <c r="E153" s="2">
-        <v>45744</v>
+        <v>45742</v>
       </c>
       <c r="F153">
         <v>17.51</v>
@@ -7898,10 +7898,10 @@
         <v>2</v>
       </c>
       <c r="D154" s="2">
+        <v>45735</v>
+      </c>
+      <c r="E154" s="2">
         <v>45740</v>
-      </c>
-      <c r="E154" s="2">
-        <v>45746</v>
       </c>
       <c r="F154">
         <v>8.82</v>
@@ -7927,10 +7927,10 @@
         <v>4</v>
       </c>
       <c r="D155" s="2">
-        <v>45743</v>
+        <v>45735</v>
       </c>
       <c r="E155" s="2">
-        <v>45745</v>
+        <v>45741</v>
       </c>
       <c r="F155">
         <v>22.14</v>
@@ -7959,7 +7959,7 @@
         <v>45740</v>
       </c>
       <c r="E156" s="2">
-        <v>45745</v>
+        <v>45748</v>
       </c>
       <c r="F156">
         <v>13.42</v>
@@ -7985,10 +7985,10 @@
         <v>1</v>
       </c>
       <c r="D157" s="2">
-        <v>45741</v>
+        <v>45737</v>
       </c>
       <c r="E157" s="2">
-        <v>45747</v>
+        <v>45745</v>
       </c>
       <c r="F157">
         <v>20.43</v>
@@ -8014,10 +8014,10 @@
         <v>3</v>
       </c>
       <c r="D158" s="2">
-        <v>45742</v>
+        <v>45736</v>
       </c>
       <c r="E158" s="2">
-        <v>45746</v>
+        <v>45745</v>
       </c>
       <c r="F158">
         <v>8.84</v>
@@ -8043,10 +8043,10 @@
         <v>4</v>
       </c>
       <c r="D159" s="2">
-        <v>45740</v>
+        <v>45738</v>
       </c>
       <c r="E159" s="2">
-        <v>45746</v>
+        <v>45747</v>
       </c>
       <c r="F159">
         <v>23.07</v>
@@ -8072,7 +8072,7 @@
         <v>5</v>
       </c>
       <c r="D160" s="2">
-        <v>45742</v>
+        <v>45737</v>
       </c>
       <c r="E160" s="2">
         <v>45745</v>
@@ -8104,7 +8104,7 @@
         <v>45740</v>
       </c>
       <c r="E161" s="2">
-        <v>45745</v>
+        <v>45746</v>
       </c>
       <c r="F161">
         <v>10.7</v>
@@ -8130,10 +8130,10 @@
         <v>5</v>
       </c>
       <c r="D162" s="2">
-        <v>45743</v>
+        <v>45736</v>
       </c>
       <c r="E162" s="2">
-        <v>45747</v>
+        <v>45742</v>
       </c>
       <c r="F162">
         <v>8.69</v>
@@ -8159,10 +8159,10 @@
         <v>4</v>
       </c>
       <c r="D163" s="2">
-        <v>45741</v>
+        <v>45735</v>
       </c>
       <c r="E163" s="2">
-        <v>45745</v>
+        <v>45743</v>
       </c>
       <c r="F163">
         <v>12.17</v>
@@ -8188,7 +8188,7 @@
         <v>5</v>
       </c>
       <c r="D164" s="2">
-        <v>45742</v>
+        <v>45737</v>
       </c>
       <c r="E164" s="2">
         <v>45745</v>
@@ -8217,10 +8217,10 @@
         <v>1</v>
       </c>
       <c r="D165" s="2">
-        <v>45742</v>
+        <v>45736</v>
       </c>
       <c r="E165" s="2">
-        <v>45745</v>
+        <v>45744</v>
       </c>
       <c r="F165">
         <v>5</v>
@@ -8246,10 +8246,10 @@
         <v>1</v>
       </c>
       <c r="D166" s="2">
-        <v>45742</v>
+        <v>45737</v>
       </c>
       <c r="E166" s="2">
-        <v>45746</v>
+        <v>45740</v>
       </c>
       <c r="F166">
         <v>6</v>
@@ -8275,10 +8275,10 @@
         <v>3</v>
       </c>
       <c r="D167" s="2">
-        <v>45741</v>
+        <v>45736</v>
       </c>
       <c r="E167" s="2">
-        <v>45744</v>
+        <v>45739</v>
       </c>
       <c r="F167">
         <v>19.82</v>
@@ -8304,10 +8304,10 @@
         <v>2</v>
       </c>
       <c r="D168" s="2">
-        <v>45743</v>
+        <v>45737</v>
       </c>
       <c r="E168" s="2">
-        <v>45748</v>
+        <v>45741</v>
       </c>
       <c r="F168">
         <v>13.64</v>
@@ -8333,10 +8333,10 @@
         <v>2</v>
       </c>
       <c r="D169" s="2">
+        <v>45735</v>
+      </c>
+      <c r="E169" s="2">
         <v>45743</v>
-      </c>
-      <c r="E169" s="2">
-        <v>45748</v>
       </c>
       <c r="F169">
         <v>5.35</v>
@@ -8362,7 +8362,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="2">
-        <v>45743</v>
+        <v>45740</v>
       </c>
       <c r="E170" s="2">
         <v>45744</v>
@@ -8391,10 +8391,10 @@
         <v>6</v>
       </c>
       <c r="D171" s="2">
-        <v>45743</v>
+        <v>45736</v>
       </c>
       <c r="E171" s="2">
-        <v>45746</v>
+        <v>45745</v>
       </c>
       <c r="F171">
         <v>7.21</v>
@@ -8420,10 +8420,10 @@
         <v>4</v>
       </c>
       <c r="D172" s="2">
-        <v>45741</v>
+        <v>45737</v>
       </c>
       <c r="E172" s="2">
-        <v>45745</v>
+        <v>45744</v>
       </c>
       <c r="F172">
         <v>11.5</v>
@@ -8449,7 +8449,7 @@
         <v>6</v>
       </c>
       <c r="D173" s="2">
-        <v>45743</v>
+        <v>45736</v>
       </c>
       <c r="E173" s="2">
         <v>45746</v>
@@ -8478,10 +8478,10 @@
         <v>2</v>
       </c>
       <c r="D174" s="2">
-        <v>45743</v>
+        <v>45740</v>
       </c>
       <c r="E174" s="2">
-        <v>45746</v>
+        <v>45750</v>
       </c>
       <c r="F174">
         <v>24.46</v>
@@ -8507,10 +8507,10 @@
         <v>1</v>
       </c>
       <c r="D175" s="2">
-        <v>45740</v>
+        <v>45739</v>
       </c>
       <c r="E175" s="2">
-        <v>45746</v>
+        <v>45743</v>
       </c>
       <c r="F175">
         <v>16.73</v>
@@ -8536,10 +8536,10 @@
         <v>6</v>
       </c>
       <c r="D176" s="2">
-        <v>45741</v>
+        <v>45738</v>
       </c>
       <c r="E176" s="2">
-        <v>45744</v>
+        <v>45743</v>
       </c>
       <c r="F176">
         <v>5.23</v>
@@ -8565,7 +8565,7 @@
         <v>2</v>
       </c>
       <c r="D177" s="2">
-        <v>45743</v>
+        <v>45738</v>
       </c>
       <c r="E177" s="2">
         <v>45748</v>
@@ -8594,7 +8594,7 @@
         <v>2</v>
       </c>
       <c r="D178" s="2">
-        <v>45743</v>
+        <v>45740</v>
       </c>
       <c r="E178" s="2">
         <v>45745</v>
@@ -8623,10 +8623,10 @@
         <v>2</v>
       </c>
       <c r="D179" s="2">
-        <v>45742</v>
+        <v>45735</v>
       </c>
       <c r="E179" s="2">
-        <v>45748</v>
+        <v>45744</v>
       </c>
       <c r="F179">
         <v>12.75</v>
@@ -8652,10 +8652,10 @@
         <v>2</v>
       </c>
       <c r="D180" s="2">
+        <v>45736</v>
+      </c>
+      <c r="E180" s="2">
         <v>45741</v>
-      </c>
-      <c r="E180" s="2">
-        <v>45744</v>
       </c>
       <c r="F180">
         <v>8.17</v>
@@ -8681,10 +8681,10 @@
         <v>2</v>
       </c>
       <c r="D181" s="2">
-        <v>45740</v>
+        <v>45736</v>
       </c>
       <c r="E181" s="2">
-        <v>45746</v>
+        <v>45743</v>
       </c>
       <c r="F181">
         <v>11.69</v>
@@ -8710,10 +8710,10 @@
         <v>3</v>
       </c>
       <c r="D182" s="2">
-        <v>45741</v>
+        <v>45736</v>
       </c>
       <c r="E182" s="2">
-        <v>45745</v>
+        <v>45740</v>
       </c>
       <c r="F182">
         <v>9.140000000000001</v>
@@ -8739,7 +8739,7 @@
         <v>5</v>
       </c>
       <c r="D183" s="2">
-        <v>45743</v>
+        <v>45739</v>
       </c>
       <c r="E183" s="2">
         <v>45744</v>
@@ -8768,10 +8768,10 @@
         <v>3</v>
       </c>
       <c r="D184" s="2">
-        <v>45740</v>
+        <v>45735</v>
       </c>
       <c r="E184" s="2">
-        <v>45744</v>
+        <v>45741</v>
       </c>
       <c r="F184">
         <v>4.26</v>
@@ -8797,10 +8797,10 @@
         <v>6</v>
       </c>
       <c r="D185" s="2">
-        <v>45742</v>
+        <v>45738</v>
       </c>
       <c r="E185" s="2">
-        <v>45746</v>
+        <v>45745</v>
       </c>
       <c r="F185">
         <v>5.21</v>
@@ -8826,7 +8826,7 @@
         <v>6</v>
       </c>
       <c r="D186" s="2">
-        <v>45742</v>
+        <v>45739</v>
       </c>
       <c r="E186" s="2">
         <v>45748</v>
@@ -8855,10 +8855,10 @@
         <v>5</v>
       </c>
       <c r="D187" s="2">
-        <v>45740</v>
+        <v>45738</v>
       </c>
       <c r="E187" s="2">
-        <v>45747</v>
+        <v>45741</v>
       </c>
       <c r="F187">
         <v>6.18</v>
@@ -8884,10 +8884,10 @@
         <v>1</v>
       </c>
       <c r="D188" s="2">
-        <v>45743</v>
+        <v>45737</v>
       </c>
       <c r="E188" s="2">
-        <v>45748</v>
+        <v>45744</v>
       </c>
       <c r="F188">
         <v>11.24</v>
@@ -8913,10 +8913,10 @@
         <v>1</v>
       </c>
       <c r="D189" s="2">
-        <v>45742</v>
+        <v>45736</v>
       </c>
       <c r="E189" s="2">
-        <v>45745</v>
+        <v>45744</v>
       </c>
       <c r="F189">
         <v>7.47</v>
@@ -8942,10 +8942,10 @@
         <v>4</v>
       </c>
       <c r="D190" s="2">
-        <v>45743</v>
+        <v>45740</v>
       </c>
       <c r="E190" s="2">
-        <v>45748</v>
+        <v>45745</v>
       </c>
       <c r="F190">
         <v>23.06</v>
@@ -8971,10 +8971,10 @@
         <v>6</v>
       </c>
       <c r="D191" s="2">
+        <v>45738</v>
+      </c>
+      <c r="E191" s="2">
         <v>45742</v>
-      </c>
-      <c r="E191" s="2">
-        <v>45748</v>
       </c>
       <c r="F191">
         <v>24.57</v>
@@ -9003,7 +9003,7 @@
         <v>45740</v>
       </c>
       <c r="E192" s="2">
-        <v>45747</v>
+        <v>45743</v>
       </c>
       <c r="F192">
         <v>14.16</v>
@@ -9029,10 +9029,10 @@
         <v>3</v>
       </c>
       <c r="D193" s="2">
-        <v>45740</v>
+        <v>45739</v>
       </c>
       <c r="E193" s="2">
-        <v>45745</v>
+        <v>45742</v>
       </c>
       <c r="F193">
         <v>12.93</v>
@@ -9058,10 +9058,10 @@
         <v>4</v>
       </c>
       <c r="D194" s="2">
-        <v>45742</v>
+        <v>45740</v>
       </c>
       <c r="E194" s="2">
-        <v>45748</v>
+        <v>45747</v>
       </c>
       <c r="F194">
         <v>6.27</v>
@@ -9116,10 +9116,10 @@
         <v>2</v>
       </c>
       <c r="D196" s="2">
-        <v>45742</v>
+        <v>45740</v>
       </c>
       <c r="E196" s="2">
-        <v>45745</v>
+        <v>45744</v>
       </c>
       <c r="F196">
         <v>22.81</v>
@@ -9145,10 +9145,10 @@
         <v>1</v>
       </c>
       <c r="D197" s="2">
-        <v>45743</v>
+        <v>45736</v>
       </c>
       <c r="E197" s="2">
-        <v>45747</v>
+        <v>45745</v>
       </c>
       <c r="F197">
         <v>19.7</v>
@@ -9174,10 +9174,10 @@
         <v>3</v>
       </c>
       <c r="D198" s="2">
-        <v>45741</v>
+        <v>45735</v>
       </c>
       <c r="E198" s="2">
-        <v>45748</v>
+        <v>45743</v>
       </c>
       <c r="F198">
         <v>10.77</v>
@@ -9203,10 +9203,10 @@
         <v>6</v>
       </c>
       <c r="D199" s="2">
-        <v>45742</v>
+        <v>45736</v>
       </c>
       <c r="E199" s="2">
-        <v>45747</v>
+        <v>45740</v>
       </c>
       <c r="F199">
         <v>13.16</v>
@@ -9232,10 +9232,10 @@
         <v>3</v>
       </c>
       <c r="D200" s="2">
-        <v>45741</v>
+        <v>45737</v>
       </c>
       <c r="E200" s="2">
-        <v>45746</v>
+        <v>45744</v>
       </c>
       <c r="F200">
         <v>19.18</v>
@@ -9261,10 +9261,10 @@
         <v>6</v>
       </c>
       <c r="D201" s="2">
-        <v>45743</v>
+        <v>45739</v>
       </c>
       <c r="E201" s="2">
-        <v>45746</v>
+        <v>45748</v>
       </c>
       <c r="F201">
         <v>15.55</v>
@@ -9290,10 +9290,10 @@
         <v>3</v>
       </c>
       <c r="D202" s="2">
-        <v>45741</v>
+        <v>45737</v>
       </c>
       <c r="E202" s="2">
-        <v>45745</v>
+        <v>45747</v>
       </c>
       <c r="F202">
         <v>14.27</v>
@@ -9319,10 +9319,10 @@
         <v>5</v>
       </c>
       <c r="D203" s="2">
-        <v>45742</v>
+        <v>45735</v>
       </c>
       <c r="E203" s="2">
-        <v>45744</v>
+        <v>45739</v>
       </c>
       <c r="F203">
         <v>11.58</v>
@@ -9348,7 +9348,7 @@
         <v>4</v>
       </c>
       <c r="D204" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E204" s="2">
         <v>45744</v>
@@ -9377,10 +9377,10 @@
         <v>6</v>
       </c>
       <c r="D205" s="2">
+        <v>45737</v>
+      </c>
+      <c r="E205" s="2">
         <v>45743</v>
-      </c>
-      <c r="E205" s="2">
-        <v>45748</v>
       </c>
       <c r="F205">
         <v>22.67</v>
@@ -9409,7 +9409,7 @@
         <v>45740</v>
       </c>
       <c r="E206" s="2">
-        <v>45746</v>
+        <v>45744</v>
       </c>
       <c r="F206">
         <v>19.18</v>
@@ -9435,10 +9435,10 @@
         <v>1</v>
       </c>
       <c r="D207" s="2">
-        <v>45743</v>
+        <v>45736</v>
       </c>
       <c r="E207" s="2">
-        <v>45745</v>
+        <v>45741</v>
       </c>
       <c r="F207">
         <v>20.82</v>
@@ -9464,10 +9464,10 @@
         <v>1</v>
       </c>
       <c r="D208" s="2">
-        <v>45741</v>
+        <v>45737</v>
       </c>
       <c r="E208" s="2">
-        <v>45747</v>
+        <v>45743</v>
       </c>
       <c r="F208">
         <v>17.56</v>
@@ -9493,10 +9493,10 @@
         <v>3</v>
       </c>
       <c r="D209" s="2">
-        <v>45743</v>
+        <v>45737</v>
       </c>
       <c r="E209" s="2">
-        <v>45747</v>
+        <v>45740</v>
       </c>
       <c r="F209">
         <v>20.19</v>
@@ -9522,10 +9522,10 @@
         <v>1</v>
       </c>
       <c r="D210" s="2">
-        <v>45742</v>
+        <v>45739</v>
       </c>
       <c r="E210" s="2">
-        <v>45745</v>
+        <v>45748</v>
       </c>
       <c r="F210">
         <v>13.53</v>
@@ -9551,10 +9551,10 @@
         <v>5</v>
       </c>
       <c r="D211" s="2">
+        <v>45738</v>
+      </c>
+      <c r="E211" s="2">
         <v>45743</v>
-      </c>
-      <c r="E211" s="2">
-        <v>45745</v>
       </c>
       <c r="F211">
         <v>14.39</v>
@@ -9580,10 +9580,10 @@
         <v>1</v>
       </c>
       <c r="D212" s="2">
-        <v>45743</v>
+        <v>45738</v>
       </c>
       <c r="E212" s="2">
-        <v>45746</v>
+        <v>45742</v>
       </c>
       <c r="F212">
         <v>4.91</v>
@@ -9609,10 +9609,10 @@
         <v>5</v>
       </c>
       <c r="D213" s="2">
-        <v>45742</v>
+        <v>45739</v>
       </c>
       <c r="E213" s="2">
-        <v>45746</v>
+        <v>45745</v>
       </c>
       <c r="F213">
         <v>15.43</v>
@@ -9638,10 +9638,10 @@
         <v>2</v>
       </c>
       <c r="D214" s="2">
-        <v>45742</v>
+        <v>45735</v>
       </c>
       <c r="E214" s="2">
-        <v>45744</v>
+        <v>45745</v>
       </c>
       <c r="F214">
         <v>19.86</v>
@@ -9667,10 +9667,10 @@
         <v>6</v>
       </c>
       <c r="D215" s="2">
-        <v>45742</v>
+        <v>45739</v>
       </c>
       <c r="E215" s="2">
-        <v>45746</v>
+        <v>45747</v>
       </c>
       <c r="F215">
         <v>6.03</v>
@@ -9696,10 +9696,10 @@
         <v>3</v>
       </c>
       <c r="D216" s="2">
+        <v>45737</v>
+      </c>
+      <c r="E216" s="2">
         <v>45740</v>
-      </c>
-      <c r="E216" s="2">
-        <v>45746</v>
       </c>
       <c r="F216">
         <v>14.8</v>
@@ -9725,10 +9725,10 @@
         <v>4</v>
       </c>
       <c r="D217" s="2">
+        <v>45735</v>
+      </c>
+      <c r="E217" s="2">
         <v>45743</v>
-      </c>
-      <c r="E217" s="2">
-        <v>45747</v>
       </c>
       <c r="F217">
         <v>4.92</v>
@@ -9754,7 +9754,7 @@
         <v>1</v>
       </c>
       <c r="D218" s="2">
-        <v>45743</v>
+        <v>45737</v>
       </c>
       <c r="E218" s="2">
         <v>45744</v>
@@ -9783,10 +9783,10 @@
         <v>1</v>
       </c>
       <c r="D219" s="2">
-        <v>45743</v>
+        <v>45740</v>
       </c>
       <c r="E219" s="2">
-        <v>45746</v>
+        <v>45750</v>
       </c>
       <c r="F219">
         <v>19.99</v>
@@ -9812,10 +9812,10 @@
         <v>1</v>
       </c>
       <c r="D220" s="2">
-        <v>45743</v>
+        <v>45735</v>
       </c>
       <c r="E220" s="2">
-        <v>45747</v>
+        <v>45744</v>
       </c>
       <c r="F220">
         <v>9.35</v>
@@ -9841,10 +9841,10 @@
         <v>1</v>
       </c>
       <c r="D221" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E221" s="2">
-        <v>45746</v>
+        <v>45749</v>
       </c>
       <c r="F221">
         <v>5.71</v>
@@ -9870,10 +9870,10 @@
         <v>2</v>
       </c>
       <c r="D222" s="2">
-        <v>45740</v>
+        <v>45739</v>
       </c>
       <c r="E222" s="2">
-        <v>45746</v>
+        <v>45748</v>
       </c>
       <c r="F222">
         <v>23.65</v>
@@ -9899,10 +9899,10 @@
         <v>5</v>
       </c>
       <c r="D223" s="2">
-        <v>45741</v>
+        <v>45737</v>
       </c>
       <c r="E223" s="2">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="F223">
         <v>12.13</v>
@@ -9928,10 +9928,10 @@
         <v>2</v>
       </c>
       <c r="D224" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E224" s="2">
-        <v>45744</v>
+        <v>45748</v>
       </c>
       <c r="F224">
         <v>5.84</v>
@@ -9957,10 +9957,10 @@
         <v>1</v>
       </c>
       <c r="D225" s="2">
-        <v>45741</v>
+        <v>45737</v>
       </c>
       <c r="E225" s="2">
-        <v>45744</v>
+        <v>45746</v>
       </c>
       <c r="F225">
         <v>22.88</v>
@@ -9986,10 +9986,10 @@
         <v>2</v>
       </c>
       <c r="D226" s="2">
-        <v>45742</v>
+        <v>45740</v>
       </c>
       <c r="E226" s="2">
-        <v>45745</v>
+        <v>45747</v>
       </c>
       <c r="F226">
         <v>19.75</v>
@@ -10015,10 +10015,10 @@
         <v>6</v>
       </c>
       <c r="D227" s="2">
-        <v>45740</v>
+        <v>45738</v>
       </c>
       <c r="E227" s="2">
-        <v>45748</v>
+        <v>45741</v>
       </c>
       <c r="F227">
         <v>21.25</v>
@@ -10044,10 +10044,10 @@
         <v>4</v>
       </c>
       <c r="D228" s="2">
-        <v>45740</v>
+        <v>45737</v>
       </c>
       <c r="E228" s="2">
-        <v>45748</v>
+        <v>45746</v>
       </c>
       <c r="F228">
         <v>22.03</v>
@@ -10073,10 +10073,10 @@
         <v>6</v>
       </c>
       <c r="D229" s="2">
-        <v>45742</v>
+        <v>45739</v>
       </c>
       <c r="E229" s="2">
-        <v>45747</v>
+        <v>45743</v>
       </c>
       <c r="F229">
         <v>8.300000000000001</v>
@@ -10105,7 +10105,7 @@
         <v>45740</v>
       </c>
       <c r="E230" s="2">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="F230">
         <v>7.33</v>
@@ -10131,10 +10131,10 @@
         <v>4</v>
       </c>
       <c r="D231" s="2">
+        <v>45737</v>
+      </c>
+      <c r="E231" s="2">
         <v>45742</v>
-      </c>
-      <c r="E231" s="2">
-        <v>45748</v>
       </c>
       <c r="F231">
         <v>8.24</v>
@@ -10160,10 +10160,10 @@
         <v>3</v>
       </c>
       <c r="D232" s="2">
-        <v>45741</v>
+        <v>45735</v>
       </c>
       <c r="E232" s="2">
-        <v>45746</v>
+        <v>45738</v>
       </c>
       <c r="F232">
         <v>21.96</v>
@@ -10189,10 +10189,10 @@
         <v>6</v>
       </c>
       <c r="D233" s="2">
-        <v>45740</v>
+        <v>45739</v>
       </c>
       <c r="E233" s="2">
-        <v>45745</v>
+        <v>45746</v>
       </c>
       <c r="F233">
         <v>20.97</v>
@@ -10218,10 +10218,10 @@
         <v>4</v>
       </c>
       <c r="D234" s="2">
-        <v>45742</v>
+        <v>45737</v>
       </c>
       <c r="E234" s="2">
-        <v>45747</v>
+        <v>45740</v>
       </c>
       <c r="F234">
         <v>24.83</v>
@@ -10247,10 +10247,10 @@
         <v>3</v>
       </c>
       <c r="D235" s="2">
-        <v>45741</v>
+        <v>45738</v>
       </c>
       <c r="E235" s="2">
-        <v>45744</v>
+        <v>45746</v>
       </c>
       <c r="F235">
         <v>21.87</v>
@@ -10276,10 +10276,10 @@
         <v>2</v>
       </c>
       <c r="D236" s="2">
-        <v>45743</v>
+        <v>45735</v>
       </c>
       <c r="E236" s="2">
-        <v>45746</v>
+        <v>45742</v>
       </c>
       <c r="F236">
         <v>5.88</v>
@@ -10308,7 +10308,7 @@
         <v>45740</v>
       </c>
       <c r="E237" s="2">
-        <v>45744</v>
+        <v>45743</v>
       </c>
       <c r="F237">
         <v>8.66</v>
@@ -10334,10 +10334,10 @@
         <v>3</v>
       </c>
       <c r="D238" s="2">
-        <v>45741</v>
+        <v>45737</v>
       </c>
       <c r="E238" s="2">
-        <v>45748</v>
+        <v>45743</v>
       </c>
       <c r="F238">
         <v>9.869999999999999</v>
@@ -10363,10 +10363,10 @@
         <v>1</v>
       </c>
       <c r="D239" s="2">
-        <v>45741</v>
+        <v>45736</v>
       </c>
       <c r="E239" s="2">
-        <v>45747</v>
+        <v>45739</v>
       </c>
       <c r="F239">
         <v>13.08</v>
@@ -10392,7 +10392,7 @@
         <v>6</v>
       </c>
       <c r="D240" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E240" s="2">
         <v>45747</v>
@@ -10421,10 +10421,10 @@
         <v>2</v>
       </c>
       <c r="D241" s="2">
-        <v>45740</v>
+        <v>45739</v>
       </c>
       <c r="E241" s="2">
-        <v>45748</v>
+        <v>45744</v>
       </c>
       <c r="F241">
         <v>15.17</v>
@@ -10450,10 +10450,10 @@
         <v>2</v>
       </c>
       <c r="D242" s="2">
-        <v>45742</v>
+        <v>45740</v>
       </c>
       <c r="E242" s="2">
-        <v>45744</v>
+        <v>45749</v>
       </c>
       <c r="F242">
         <v>16.5</v>
@@ -10479,10 +10479,10 @@
         <v>4</v>
       </c>
       <c r="D243" s="2">
-        <v>45740</v>
+        <v>45737</v>
       </c>
       <c r="E243" s="2">
-        <v>45746</v>
+        <v>45742</v>
       </c>
       <c r="F243">
         <v>5.33</v>
@@ -10508,10 +10508,10 @@
         <v>6</v>
       </c>
       <c r="D244" s="2">
-        <v>45741</v>
+        <v>45736</v>
       </c>
       <c r="E244" s="2">
-        <v>45747</v>
+        <v>45742</v>
       </c>
       <c r="F244">
         <v>11.62</v>
@@ -10537,10 +10537,10 @@
         <v>1</v>
       </c>
       <c r="D245" s="2">
-        <v>45741</v>
+        <v>45737</v>
       </c>
       <c r="E245" s="2">
-        <v>45745</v>
+        <v>45742</v>
       </c>
       <c r="F245">
         <v>23.5</v>
@@ -10566,10 +10566,10 @@
         <v>3</v>
       </c>
       <c r="D246" s="2">
-        <v>45740</v>
+        <v>45739</v>
       </c>
       <c r="E246" s="2">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="F246">
         <v>12.26</v>
@@ -10595,10 +10595,10 @@
         <v>6</v>
       </c>
       <c r="D247" s="2">
-        <v>45742</v>
+        <v>45739</v>
       </c>
       <c r="E247" s="2">
-        <v>45744</v>
+        <v>45743</v>
       </c>
       <c r="F247">
         <v>17.21</v>
@@ -10624,10 +10624,10 @@
         <v>5</v>
       </c>
       <c r="D248" s="2">
-        <v>45741</v>
+        <v>45739</v>
       </c>
       <c r="E248" s="2">
-        <v>45747</v>
+        <v>45745</v>
       </c>
       <c r="F248">
         <v>6.51</v>
@@ -10653,7 +10653,7 @@
         <v>6</v>
       </c>
       <c r="D249" s="2">
-        <v>45742</v>
+        <v>45738</v>
       </c>
       <c r="E249" s="2">
         <v>45748</v>
@@ -10682,10 +10682,10 @@
         <v>3</v>
       </c>
       <c r="D250" s="2">
-        <v>45741</v>
+        <v>45735</v>
       </c>
       <c r="E250" s="2">
-        <v>45746</v>
+        <v>45742</v>
       </c>
       <c r="F250">
         <v>5.86</v>
@@ -10711,10 +10711,10 @@
         <v>1</v>
       </c>
       <c r="D251" s="2">
-        <v>45743</v>
+        <v>45737</v>
       </c>
       <c r="E251" s="2">
-        <v>45747</v>
+        <v>45741</v>
       </c>
       <c r="F251">
         <v>6.48</v>
@@ -10740,10 +10740,10 @@
         <v>3</v>
       </c>
       <c r="D252" s="2">
-        <v>45743</v>
+        <v>45735</v>
       </c>
       <c r="E252" s="2">
-        <v>45747</v>
+        <v>45738</v>
       </c>
       <c r="F252">
         <v>4.22</v>
@@ -10769,10 +10769,10 @@
         <v>2</v>
       </c>
       <c r="D253" s="2">
-        <v>45742</v>
+        <v>45739</v>
       </c>
       <c r="E253" s="2">
-        <v>45747</v>
+        <v>45746</v>
       </c>
       <c r="F253">
         <v>7.43</v>
@@ -10798,10 +10798,10 @@
         <v>6</v>
       </c>
       <c r="D254" s="2">
+        <v>45736</v>
+      </c>
+      <c r="E254" s="2">
         <v>45740</v>
-      </c>
-      <c r="E254" s="2">
-        <v>45748</v>
       </c>
       <c r="F254">
         <v>17.62</v>
@@ -10827,10 +10827,10 @@
         <v>4</v>
       </c>
       <c r="D255" s="2">
-        <v>45743</v>
+        <v>45735</v>
       </c>
       <c r="E255" s="2">
-        <v>45744</v>
+        <v>45741</v>
       </c>
       <c r="F255">
         <v>17.61</v>
@@ -10856,10 +10856,10 @@
         <v>6</v>
       </c>
       <c r="D256" s="2">
-        <v>45742</v>
+        <v>45737</v>
       </c>
       <c r="E256" s="2">
-        <v>45748</v>
+        <v>45747</v>
       </c>
       <c r="F256">
         <v>23.42</v>
@@ -10885,10 +10885,10 @@
         <v>2</v>
       </c>
       <c r="D257" s="2">
-        <v>45742</v>
+        <v>45737</v>
       </c>
       <c r="E257" s="2">
-        <v>45744</v>
+        <v>45746</v>
       </c>
       <c r="F257">
         <v>7.56</v>
@@ -10914,10 +10914,10 @@
         <v>1</v>
       </c>
       <c r="D258" s="2">
-        <v>45740</v>
+        <v>45739</v>
       </c>
       <c r="E258" s="2">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="F258">
         <v>10.81</v>
@@ -10943,10 +10943,10 @@
         <v>5</v>
       </c>
       <c r="D259" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E259" s="2">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="F259">
         <v>18.13</v>
@@ -10972,10 +10972,10 @@
         <v>1</v>
       </c>
       <c r="D260" s="2">
-        <v>45740</v>
+        <v>45739</v>
       </c>
       <c r="E260" s="2">
-        <v>45747</v>
+        <v>45749</v>
       </c>
       <c r="F260">
         <v>9.359999999999999</v>
@@ -11001,10 +11001,10 @@
         <v>1</v>
       </c>
       <c r="D261" s="2">
-        <v>45742</v>
+        <v>45735</v>
       </c>
       <c r="E261" s="2">
-        <v>45744</v>
+        <v>45740</v>
       </c>
       <c r="F261">
         <v>19.02</v>
@@ -11030,7 +11030,7 @@
         <v>2</v>
       </c>
       <c r="D262" s="2">
-        <v>45743</v>
+        <v>45737</v>
       </c>
       <c r="E262" s="2">
         <v>45746</v>
@@ -11059,10 +11059,10 @@
         <v>2</v>
       </c>
       <c r="D263" s="2">
-        <v>45740</v>
+        <v>45737</v>
       </c>
       <c r="E263" s="2">
-        <v>45748</v>
+        <v>45742</v>
       </c>
       <c r="F263">
         <v>23.67</v>
@@ -11088,10 +11088,10 @@
         <v>5</v>
       </c>
       <c r="D264" s="2">
-        <v>45743</v>
+        <v>45736</v>
       </c>
       <c r="E264" s="2">
-        <v>45746</v>
+        <v>45741</v>
       </c>
       <c r="F264">
         <v>10.3</v>
@@ -11117,10 +11117,10 @@
         <v>5</v>
       </c>
       <c r="D265" s="2">
-        <v>45740</v>
+        <v>45737</v>
       </c>
       <c r="E265" s="2">
-        <v>45746</v>
+        <v>45742</v>
       </c>
       <c r="F265">
         <v>19.38</v>
@@ -11146,10 +11146,10 @@
         <v>2</v>
       </c>
       <c r="D266" s="2">
-        <v>45742</v>
+        <v>45739</v>
       </c>
       <c r="E266" s="2">
-        <v>45746</v>
+        <v>45744</v>
       </c>
       <c r="F266">
         <v>14.19</v>
@@ -11175,10 +11175,10 @@
         <v>1</v>
       </c>
       <c r="D267" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E267" s="2">
-        <v>45746</v>
+        <v>45743</v>
       </c>
       <c r="F267">
         <v>10.39</v>
@@ -11204,10 +11204,10 @@
         <v>4</v>
       </c>
       <c r="D268" s="2">
-        <v>45740</v>
+        <v>45739</v>
       </c>
       <c r="E268" s="2">
-        <v>45747</v>
+        <v>45746</v>
       </c>
       <c r="F268">
         <v>4.5</v>
@@ -11233,10 +11233,10 @@
         <v>3</v>
       </c>
       <c r="D269" s="2">
-        <v>45740</v>
+        <v>45736</v>
       </c>
       <c r="E269" s="2">
-        <v>45746</v>
+        <v>45743</v>
       </c>
       <c r="F269">
         <v>13.11</v>
@@ -11262,7 +11262,7 @@
         <v>6</v>
       </c>
       <c r="D270" s="2">
-        <v>45743</v>
+        <v>45738</v>
       </c>
       <c r="E270" s="2">
         <v>45748</v>
@@ -11320,7 +11320,7 @@
         <v>5</v>
       </c>
       <c r="D272" s="2">
-        <v>45743</v>
+        <v>45739</v>
       </c>
       <c r="E272" s="2">
         <v>45747</v>
@@ -11349,10 +11349,10 @@
         <v>2</v>
       </c>
       <c r="D273" s="2">
-        <v>45743</v>
+        <v>45738</v>
       </c>
       <c r="E273" s="2">
-        <v>45745</v>
+        <v>45741</v>
       </c>
       <c r="F273">
         <v>5.65</v>
@@ -11378,10 +11378,10 @@
         <v>4</v>
       </c>
       <c r="D274" s="2">
-        <v>45743</v>
+        <v>45736</v>
       </c>
       <c r="E274" s="2">
-        <v>45745</v>
+        <v>45740</v>
       </c>
       <c r="F274">
         <v>24.8</v>
@@ -11407,10 +11407,10 @@
         <v>6</v>
       </c>
       <c r="D275" s="2">
-        <v>45740</v>
+        <v>45735</v>
       </c>
       <c r="E275" s="2">
-        <v>45747</v>
+        <v>45742</v>
       </c>
       <c r="F275">
         <v>11</v>
@@ -11436,10 +11436,10 @@
         <v>4</v>
       </c>
       <c r="D276" s="2">
-        <v>45742</v>
+        <v>45739</v>
       </c>
       <c r="E276" s="2">
-        <v>45745</v>
+        <v>45743</v>
       </c>
       <c r="F276">
         <v>21.75</v>
@@ -11465,10 +11465,10 @@
         <v>1</v>
       </c>
       <c r="D277" s="2">
-        <v>45741</v>
+        <v>45739</v>
       </c>
       <c r="E277" s="2">
-        <v>45745</v>
+        <v>45744</v>
       </c>
       <c r="F277">
         <v>6.2</v>
@@ -11494,10 +11494,10 @@
         <v>5</v>
       </c>
       <c r="D278" s="2">
-        <v>45740</v>
+        <v>45738</v>
       </c>
       <c r="E278" s="2">
-        <v>45747</v>
+        <v>45743</v>
       </c>
       <c r="F278">
         <v>22.96</v>
@@ -11523,10 +11523,10 @@
         <v>2</v>
       </c>
       <c r="D279" s="2">
-        <v>45742</v>
+        <v>45737</v>
       </c>
       <c r="E279" s="2">
-        <v>45744</v>
+        <v>45741</v>
       </c>
       <c r="F279">
         <v>4.51</v>
@@ -11552,10 +11552,10 @@
         <v>2</v>
       </c>
       <c r="D280" s="2">
-        <v>45742</v>
+        <v>45735</v>
       </c>
       <c r="E280" s="2">
-        <v>45748</v>
+        <v>45741</v>
       </c>
       <c r="F280">
         <v>24.04</v>
@@ -11581,10 +11581,10 @@
         <v>4</v>
       </c>
       <c r="D281" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E281" s="2">
-        <v>45745</v>
+        <v>45744</v>
       </c>
       <c r="F281">
         <v>13.46</v>
@@ -11610,10 +11610,10 @@
         <v>1</v>
       </c>
       <c r="D282" s="2">
-        <v>45741</v>
+        <v>45735</v>
       </c>
       <c r="E282" s="2">
-        <v>45747</v>
+        <v>45742</v>
       </c>
       <c r="F282">
         <v>23.16</v>
@@ -11639,7 +11639,7 @@
         <v>4</v>
       </c>
       <c r="D283" s="2">
-        <v>45742</v>
+        <v>45737</v>
       </c>
       <c r="E283" s="2">
         <v>45744</v>
@@ -11668,10 +11668,10 @@
         <v>2</v>
       </c>
       <c r="D284" s="2">
-        <v>45742</v>
+        <v>45737</v>
       </c>
       <c r="E284" s="2">
-        <v>45746</v>
+        <v>45740</v>
       </c>
       <c r="F284">
         <v>16.5</v>
@@ -11697,7 +11697,7 @@
         <v>4</v>
       </c>
       <c r="D285" s="2">
-        <v>45743</v>
+        <v>45740</v>
       </c>
       <c r="E285" s="2">
         <v>45744</v>
@@ -11726,10 +11726,10 @@
         <v>2</v>
       </c>
       <c r="D286" s="2">
-        <v>45741</v>
+        <v>45736</v>
       </c>
       <c r="E286" s="2">
-        <v>45747</v>
+        <v>45739</v>
       </c>
       <c r="F286">
         <v>18.41</v>
@@ -11755,10 +11755,10 @@
         <v>5</v>
       </c>
       <c r="D287" s="2">
-        <v>45743</v>
+        <v>45740</v>
       </c>
       <c r="E287" s="2">
-        <v>45747</v>
+        <v>45750</v>
       </c>
       <c r="F287">
         <v>18.22</v>
@@ -11784,10 +11784,10 @@
         <v>3</v>
       </c>
       <c r="D288" s="2">
+        <v>45740</v>
+      </c>
+      <c r="E288" s="2">
         <v>45743</v>
-      </c>
-      <c r="E288" s="2">
-        <v>45748</v>
       </c>
       <c r="F288">
         <v>21.56</v>
@@ -11813,10 +11813,10 @@
         <v>3</v>
       </c>
       <c r="D289" s="2">
-        <v>45740</v>
+        <v>45738</v>
       </c>
       <c r="E289" s="2">
-        <v>45747</v>
+        <v>45741</v>
       </c>
       <c r="F289">
         <v>12.78</v>
@@ -11842,10 +11842,10 @@
         <v>4</v>
       </c>
       <c r="D290" s="2">
-        <v>45741</v>
+        <v>45736</v>
       </c>
       <c r="E290" s="2">
-        <v>45745</v>
+        <v>45742</v>
       </c>
       <c r="F290">
         <v>9.65</v>
@@ -11871,10 +11871,10 @@
         <v>1</v>
       </c>
       <c r="D291" s="2">
-        <v>45742</v>
+        <v>45740</v>
       </c>
       <c r="E291" s="2">
-        <v>45744</v>
+        <v>45750</v>
       </c>
       <c r="F291">
         <v>8.789999999999999</v>
@@ -11903,7 +11903,7 @@
         <v>45740</v>
       </c>
       <c r="E292" s="2">
-        <v>45746</v>
+        <v>45748</v>
       </c>
       <c r="F292">
         <v>7.48</v>
@@ -11929,10 +11929,10 @@
         <v>3</v>
       </c>
       <c r="D293" s="2">
-        <v>45742</v>
+        <v>45736</v>
       </c>
       <c r="E293" s="2">
-        <v>45746</v>
+        <v>45744</v>
       </c>
       <c r="F293">
         <v>15.15</v>
@@ -11958,10 +11958,10 @@
         <v>4</v>
       </c>
       <c r="D294" s="2">
-        <v>45743</v>
+        <v>45738</v>
       </c>
       <c r="E294" s="2">
-        <v>45746</v>
+        <v>45742</v>
       </c>
       <c r="F294">
         <v>14.3</v>
@@ -11987,10 +11987,10 @@
         <v>2</v>
       </c>
       <c r="D295" s="2">
-        <v>45741</v>
+        <v>45739</v>
       </c>
       <c r="E295" s="2">
-        <v>45745</v>
+        <v>45749</v>
       </c>
       <c r="F295">
         <v>7.77</v>
@@ -12016,10 +12016,10 @@
         <v>5</v>
       </c>
       <c r="D296" s="2">
-        <v>45742</v>
+        <v>45740</v>
       </c>
       <c r="E296" s="2">
-        <v>45744</v>
+        <v>45750</v>
       </c>
       <c r="F296">
         <v>16.75</v>
@@ -12045,10 +12045,10 @@
         <v>6</v>
       </c>
       <c r="D297" s="2">
-        <v>45741</v>
+        <v>45735</v>
       </c>
       <c r="E297" s="2">
-        <v>45747</v>
+        <v>45738</v>
       </c>
       <c r="F297">
         <v>13.38</v>
@@ -12074,10 +12074,10 @@
         <v>6</v>
       </c>
       <c r="D298" s="2">
-        <v>45741</v>
+        <v>45739</v>
       </c>
       <c r="E298" s="2">
-        <v>45747</v>
+        <v>45743</v>
       </c>
       <c r="F298">
         <v>11.46</v>
@@ -12103,10 +12103,10 @@
         <v>5</v>
       </c>
       <c r="D299" s="2">
-        <v>45742</v>
+        <v>45739</v>
       </c>
       <c r="E299" s="2">
-        <v>45748</v>
+        <v>45743</v>
       </c>
       <c r="F299">
         <v>17.34</v>
@@ -12132,10 +12132,10 @@
         <v>1</v>
       </c>
       <c r="D300" s="2">
-        <v>45741</v>
+        <v>45737</v>
       </c>
       <c r="E300" s="2">
-        <v>45747</v>
+        <v>45745</v>
       </c>
       <c r="F300">
         <v>5.01</v>
@@ -12161,10 +12161,10 @@
         <v>4</v>
       </c>
       <c r="D301" s="2">
-        <v>45740</v>
+        <v>45736</v>
       </c>
       <c r="E301" s="2">
-        <v>45745</v>
+        <v>45743</v>
       </c>
       <c r="F301">
         <v>5.22</v>
@@ -12190,10 +12190,10 @@
         <v>1</v>
       </c>
       <c r="D302" s="2">
-        <v>45743</v>
+        <v>45738</v>
       </c>
       <c r="E302" s="2">
-        <v>45748</v>
+        <v>45745</v>
       </c>
       <c r="F302">
         <v>24.68</v>
@@ -12219,10 +12219,10 @@
         <v>3</v>
       </c>
       <c r="D303" s="2">
-        <v>45742</v>
+        <v>45738</v>
       </c>
       <c r="E303" s="2">
-        <v>45746</v>
+        <v>45743</v>
       </c>
       <c r="F303">
         <v>9.26</v>
@@ -12248,10 +12248,10 @@
         <v>2</v>
       </c>
       <c r="D304" s="2">
-        <v>45741</v>
+        <v>45738</v>
       </c>
       <c r="E304" s="2">
-        <v>45746</v>
+        <v>45745</v>
       </c>
       <c r="F304">
         <v>24.45</v>
@@ -12277,10 +12277,10 @@
         <v>2</v>
       </c>
       <c r="D305" s="2">
-        <v>45740</v>
+        <v>45735</v>
       </c>
       <c r="E305" s="2">
-        <v>45748</v>
+        <v>45738</v>
       </c>
       <c r="F305">
         <v>24.02</v>
@@ -12306,10 +12306,10 @@
         <v>1</v>
       </c>
       <c r="D306" s="2">
-        <v>45741</v>
+        <v>45737</v>
       </c>
       <c r="E306" s="2">
-        <v>45744</v>
+        <v>45746</v>
       </c>
       <c r="F306">
         <v>15.18</v>
@@ -12335,10 +12335,10 @@
         <v>1</v>
       </c>
       <c r="D307" s="2">
-        <v>45743</v>
+        <v>45737</v>
       </c>
       <c r="E307" s="2">
-        <v>45745</v>
+        <v>45744</v>
       </c>
       <c r="F307">
         <v>8.84</v>
@@ -12364,10 +12364,10 @@
         <v>4</v>
       </c>
       <c r="D308" s="2">
-        <v>45743</v>
+        <v>45736</v>
       </c>
       <c r="E308" s="2">
-        <v>45745</v>
+        <v>45740</v>
       </c>
       <c r="F308">
         <v>14.61</v>
@@ -12393,7 +12393,7 @@
         <v>5</v>
       </c>
       <c r="D309" s="2">
-        <v>45743</v>
+        <v>45737</v>
       </c>
       <c r="E309" s="2">
         <v>45744</v>
@@ -12422,10 +12422,10 @@
         <v>4</v>
       </c>
       <c r="D310" s="2">
+        <v>45735</v>
+      </c>
+      <c r="E310" s="2">
         <v>45743</v>
-      </c>
-      <c r="E310" s="2">
-        <v>45744</v>
       </c>
       <c r="F310">
         <v>14.06</v>
@@ -12451,10 +12451,10 @@
         <v>1</v>
       </c>
       <c r="D311" s="2">
-        <v>45742</v>
+        <v>45740</v>
       </c>
       <c r="E311" s="2">
-        <v>45746</v>
+        <v>45750</v>
       </c>
       <c r="F311">
         <v>12.05</v>
@@ -12480,7 +12480,7 @@
         <v>1</v>
       </c>
       <c r="D312" s="2">
-        <v>45743</v>
+        <v>45739</v>
       </c>
       <c r="E312" s="2">
         <v>45748</v>
@@ -12509,10 +12509,10 @@
         <v>6</v>
       </c>
       <c r="D313" s="2">
+        <v>45736</v>
+      </c>
+      <c r="E313" s="2">
         <v>45740</v>
-      </c>
-      <c r="E313" s="2">
-        <v>45748</v>
       </c>
       <c r="F313">
         <v>15.32</v>
@@ -12538,10 +12538,10 @@
         <v>3</v>
       </c>
       <c r="D314" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E314" s="2">
-        <v>45745</v>
+        <v>45749</v>
       </c>
       <c r="F314">
         <v>16.68</v>
@@ -12567,10 +12567,10 @@
         <v>1</v>
       </c>
       <c r="D315" s="2">
-        <v>45741</v>
+        <v>45736</v>
       </c>
       <c r="E315" s="2">
-        <v>45745</v>
+        <v>45746</v>
       </c>
       <c r="F315">
         <v>6.32</v>
@@ -12596,10 +12596,10 @@
         <v>5</v>
       </c>
       <c r="D316" s="2">
-        <v>45741</v>
+        <v>45735</v>
       </c>
       <c r="E316" s="2">
-        <v>45745</v>
+        <v>45738</v>
       </c>
       <c r="F316">
         <v>21.78</v>
@@ -12625,10 +12625,10 @@
         <v>6</v>
       </c>
       <c r="D317" s="2">
+        <v>45735</v>
+      </c>
+      <c r="E317" s="2">
         <v>45743</v>
-      </c>
-      <c r="E317" s="2">
-        <v>45746</v>
       </c>
       <c r="F317">
         <v>24.96</v>
@@ -12654,10 +12654,10 @@
         <v>4</v>
       </c>
       <c r="D318" s="2">
-        <v>45741</v>
+        <v>45739</v>
       </c>
       <c r="E318" s="2">
-        <v>45745</v>
+        <v>45742</v>
       </c>
       <c r="F318">
         <v>24.24</v>
@@ -12683,10 +12683,10 @@
         <v>2</v>
       </c>
       <c r="D319" s="2">
-        <v>45743</v>
+        <v>45739</v>
       </c>
       <c r="E319" s="2">
-        <v>45747</v>
+        <v>45746</v>
       </c>
       <c r="F319">
         <v>14.86</v>
@@ -12712,10 +12712,10 @@
         <v>1</v>
       </c>
       <c r="D320" s="2">
-        <v>45741</v>
+        <v>45739</v>
       </c>
       <c r="E320" s="2">
-        <v>45747</v>
+        <v>45743</v>
       </c>
       <c r="F320">
         <v>8.43</v>
@@ -12741,10 +12741,10 @@
         <v>5</v>
       </c>
       <c r="D321" s="2">
-        <v>45743</v>
+        <v>45736</v>
       </c>
       <c r="E321" s="2">
-        <v>45746</v>
+        <v>45742</v>
       </c>
       <c r="F321">
         <v>14.59</v>
@@ -12770,10 +12770,10 @@
         <v>5</v>
       </c>
       <c r="D322" s="2">
-        <v>45740</v>
+        <v>45736</v>
       </c>
       <c r="E322" s="2">
-        <v>45744</v>
+        <v>45741</v>
       </c>
       <c r="F322">
         <v>7.87</v>
@@ -12799,10 +12799,10 @@
         <v>6</v>
       </c>
       <c r="D323" s="2">
-        <v>45743</v>
+        <v>45740</v>
       </c>
       <c r="E323" s="2">
-        <v>45744</v>
+        <v>45746</v>
       </c>
       <c r="F323">
         <v>10.04</v>
@@ -12828,10 +12828,10 @@
         <v>2</v>
       </c>
       <c r="D324" s="2">
-        <v>45743</v>
+        <v>45736</v>
       </c>
       <c r="E324" s="2">
-        <v>45746</v>
+        <v>45741</v>
       </c>
       <c r="F324">
         <v>4.62</v>
@@ -12857,10 +12857,10 @@
         <v>2</v>
       </c>
       <c r="D325" s="2">
-        <v>45741</v>
+        <v>45735</v>
       </c>
       <c r="E325" s="2">
-        <v>45746</v>
+        <v>45740</v>
       </c>
       <c r="F325">
         <v>19.32</v>
@@ -12886,7 +12886,7 @@
         <v>4</v>
       </c>
       <c r="D326" s="2">
-        <v>45740</v>
+        <v>45737</v>
       </c>
       <c r="E326" s="2">
         <v>45746</v>
@@ -12915,10 +12915,10 @@
         <v>4</v>
       </c>
       <c r="D327" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E327" s="2">
-        <v>45747</v>
+        <v>45746</v>
       </c>
       <c r="F327">
         <v>10.15</v>
@@ -12944,10 +12944,10 @@
         <v>1</v>
       </c>
       <c r="D328" s="2">
-        <v>45743</v>
+        <v>45736</v>
       </c>
       <c r="E328" s="2">
-        <v>45745</v>
+        <v>45741</v>
       </c>
       <c r="F328">
         <v>4.44</v>
@@ -12973,10 +12973,10 @@
         <v>3</v>
       </c>
       <c r="D329" s="2">
-        <v>45743</v>
+        <v>45736</v>
       </c>
       <c r="E329" s="2">
-        <v>45746</v>
+        <v>45739</v>
       </c>
       <c r="F329">
         <v>22.05</v>
@@ -13002,10 +13002,10 @@
         <v>6</v>
       </c>
       <c r="D330" s="2">
+        <v>45735</v>
+      </c>
+      <c r="E330" s="2">
         <v>45743</v>
-      </c>
-      <c r="E330" s="2">
-        <v>45745</v>
       </c>
       <c r="F330">
         <v>11.37</v>
@@ -13031,10 +13031,10 @@
         <v>3</v>
       </c>
       <c r="D331" s="2">
-        <v>45740</v>
+        <v>45737</v>
       </c>
       <c r="E331" s="2">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="F331">
         <v>14.85</v>
@@ -13060,7 +13060,7 @@
         <v>1</v>
       </c>
       <c r="D332" s="2">
-        <v>45742</v>
+        <v>45739</v>
       </c>
       <c r="E332" s="2">
         <v>45745</v>
@@ -13089,10 +13089,10 @@
         <v>5</v>
       </c>
       <c r="D333" s="2">
-        <v>45742</v>
+        <v>45735</v>
       </c>
       <c r="E333" s="2">
-        <v>45747</v>
+        <v>45738</v>
       </c>
       <c r="F333">
         <v>19.06</v>
@@ -13118,10 +13118,10 @@
         <v>6</v>
       </c>
       <c r="D334" s="2">
-        <v>45743</v>
+        <v>45737</v>
       </c>
       <c r="E334" s="2">
-        <v>45747</v>
+        <v>45744</v>
       </c>
       <c r="F334">
         <v>20.72</v>
@@ -13147,10 +13147,10 @@
         <v>1</v>
       </c>
       <c r="D335" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E335" s="2">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="F335">
         <v>10.48</v>
@@ -13179,7 +13179,7 @@
         <v>45740</v>
       </c>
       <c r="E336" s="2">
-        <v>45747</v>
+        <v>45744</v>
       </c>
       <c r="F336">
         <v>5.84</v>
@@ -13205,10 +13205,10 @@
         <v>3</v>
       </c>
       <c r="D337" s="2">
-        <v>45740</v>
+        <v>45736</v>
       </c>
       <c r="E337" s="2">
-        <v>45746</v>
+        <v>45741</v>
       </c>
       <c r="F337">
         <v>21.23</v>
@@ -13234,10 +13234,10 @@
         <v>4</v>
       </c>
       <c r="D338" s="2">
-        <v>45742</v>
+        <v>45736</v>
       </c>
       <c r="E338" s="2">
-        <v>45748</v>
+        <v>45743</v>
       </c>
       <c r="F338">
         <v>22.81</v>
@@ -13263,10 +13263,10 @@
         <v>1</v>
       </c>
       <c r="D339" s="2">
-        <v>45742</v>
+        <v>45736</v>
       </c>
       <c r="E339" s="2">
-        <v>45744</v>
+        <v>45745</v>
       </c>
       <c r="F339">
         <v>15.26</v>
@@ -13292,10 +13292,10 @@
         <v>3</v>
       </c>
       <c r="D340" s="2">
-        <v>45741</v>
+        <v>45739</v>
       </c>
       <c r="E340" s="2">
-        <v>45748</v>
+        <v>45749</v>
       </c>
       <c r="F340">
         <v>5.52</v>
@@ -13321,10 +13321,10 @@
         <v>1</v>
       </c>
       <c r="D341" s="2">
-        <v>45742</v>
+        <v>45740</v>
       </c>
       <c r="E341" s="2">
-        <v>45745</v>
+        <v>45744</v>
       </c>
       <c r="F341">
         <v>12.32</v>
@@ -13350,10 +13350,10 @@
         <v>4</v>
       </c>
       <c r="D342" s="2">
-        <v>45743</v>
+        <v>45735</v>
       </c>
       <c r="E342" s="2">
-        <v>45744</v>
+        <v>45742</v>
       </c>
       <c r="F342">
         <v>22.9</v>
@@ -13379,10 +13379,10 @@
         <v>2</v>
       </c>
       <c r="D343" s="2">
-        <v>45740</v>
+        <v>45737</v>
       </c>
       <c r="E343" s="2">
-        <v>45748</v>
+        <v>45745</v>
       </c>
       <c r="F343">
         <v>10.19</v>
@@ -13408,10 +13408,10 @@
         <v>6</v>
       </c>
       <c r="D344" s="2">
+        <v>45739</v>
+      </c>
+      <c r="E344" s="2">
         <v>45742</v>
-      </c>
-      <c r="E344" s="2">
-        <v>45746</v>
       </c>
       <c r="F344">
         <v>15.24</v>
@@ -13437,10 +13437,10 @@
         <v>3</v>
       </c>
       <c r="D345" s="2">
-        <v>45740</v>
+        <v>45738</v>
       </c>
       <c r="E345" s="2">
-        <v>45744</v>
+        <v>45746</v>
       </c>
       <c r="F345">
         <v>5.65</v>
@@ -13466,10 +13466,10 @@
         <v>1</v>
       </c>
       <c r="D346" s="2">
-        <v>45742</v>
+        <v>45739</v>
       </c>
       <c r="E346" s="2">
-        <v>45745</v>
+        <v>45749</v>
       </c>
       <c r="F346">
         <v>12.11</v>
@@ -13495,10 +13495,10 @@
         <v>3</v>
       </c>
       <c r="D347" s="2">
-        <v>45741</v>
+        <v>45736</v>
       </c>
       <c r="E347" s="2">
-        <v>45746</v>
+        <v>45742</v>
       </c>
       <c r="F347">
         <v>15.9</v>
@@ -13524,10 +13524,10 @@
         <v>1</v>
       </c>
       <c r="D348" s="2">
-        <v>45741</v>
+        <v>45735</v>
       </c>
       <c r="E348" s="2">
-        <v>45746</v>
+        <v>45740</v>
       </c>
       <c r="F348">
         <v>7.03</v>
@@ -13553,10 +13553,10 @@
         <v>2</v>
       </c>
       <c r="D349" s="2">
-        <v>45742</v>
+        <v>45735</v>
       </c>
       <c r="E349" s="2">
-        <v>45748</v>
+        <v>45743</v>
       </c>
       <c r="F349">
         <v>19.23</v>
@@ -13582,10 +13582,10 @@
         <v>5</v>
       </c>
       <c r="D350" s="2">
+        <v>45738</v>
+      </c>
+      <c r="E350" s="2">
         <v>45742</v>
-      </c>
-      <c r="E350" s="2">
-        <v>45747</v>
       </c>
       <c r="F350">
         <v>7.84</v>
@@ -13611,10 +13611,10 @@
         <v>6</v>
       </c>
       <c r="D351" s="2">
-        <v>45743</v>
+        <v>45736</v>
       </c>
       <c r="E351" s="2">
-        <v>45747</v>
+        <v>45745</v>
       </c>
       <c r="F351">
         <v>8.74</v>
@@ -13640,7 +13640,7 @@
         <v>5</v>
       </c>
       <c r="D352" s="2">
-        <v>45740</v>
+        <v>45736</v>
       </c>
       <c r="E352" s="2">
         <v>45744</v>
@@ -13669,10 +13669,10 @@
         <v>5</v>
       </c>
       <c r="D353" s="2">
+        <v>45736</v>
+      </c>
+      <c r="E353" s="2">
         <v>45741</v>
-      </c>
-      <c r="E353" s="2">
-        <v>45746</v>
       </c>
       <c r="F353">
         <v>16.08</v>
@@ -13698,10 +13698,10 @@
         <v>1</v>
       </c>
       <c r="D354" s="2">
-        <v>45743</v>
+        <v>45740</v>
       </c>
       <c r="E354" s="2">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="F354">
         <v>15.74</v>
@@ -13727,10 +13727,10 @@
         <v>5</v>
       </c>
       <c r="D355" s="2">
-        <v>45743</v>
+        <v>45739</v>
       </c>
       <c r="E355" s="2">
-        <v>45746</v>
+        <v>45748</v>
       </c>
       <c r="F355">
         <v>22.3</v>
@@ -13756,10 +13756,10 @@
         <v>4</v>
       </c>
       <c r="D356" s="2">
-        <v>45740</v>
+        <v>45738</v>
       </c>
       <c r="E356" s="2">
-        <v>45747</v>
+        <v>45742</v>
       </c>
       <c r="F356">
         <v>19</v>
@@ -13785,7 +13785,7 @@
         <v>4</v>
       </c>
       <c r="D357" s="2">
-        <v>45740</v>
+        <v>45737</v>
       </c>
       <c r="E357" s="2">
         <v>45747</v>
@@ -13814,10 +13814,10 @@
         <v>6</v>
       </c>
       <c r="D358" s="2">
-        <v>45741</v>
+        <v>45738</v>
       </c>
       <c r="E358" s="2">
-        <v>45748</v>
+        <v>45745</v>
       </c>
       <c r="F358">
         <v>9.130000000000001</v>
@@ -13843,10 +13843,10 @@
         <v>6</v>
       </c>
       <c r="D359" s="2">
-        <v>45743</v>
+        <v>45737</v>
       </c>
       <c r="E359" s="2">
-        <v>45746</v>
+        <v>45747</v>
       </c>
       <c r="F359">
         <v>22.68</v>
@@ -13872,7 +13872,7 @@
         <v>5</v>
       </c>
       <c r="D360" s="2">
-        <v>45740</v>
+        <v>45737</v>
       </c>
       <c r="E360" s="2">
         <v>45746</v>
@@ -13901,10 +13901,10 @@
         <v>4</v>
       </c>
       <c r="D361" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E361" s="2">
-        <v>45748</v>
+        <v>45746</v>
       </c>
       <c r="F361">
         <v>19.7</v>
@@ -13930,10 +13930,10 @@
         <v>4</v>
       </c>
       <c r="D362" s="2">
-        <v>45741</v>
+        <v>45736</v>
       </c>
       <c r="E362" s="2">
-        <v>45745</v>
+        <v>45743</v>
       </c>
       <c r="F362">
         <v>16.66</v>
@@ -13959,10 +13959,10 @@
         <v>4</v>
       </c>
       <c r="D363" s="2">
-        <v>45743</v>
+        <v>45739</v>
       </c>
       <c r="E363" s="2">
-        <v>45748</v>
+        <v>45749</v>
       </c>
       <c r="F363">
         <v>4.1</v>
@@ -13991,7 +13991,7 @@
         <v>45740</v>
       </c>
       <c r="E364" s="2">
-        <v>45748</v>
+        <v>45746</v>
       </c>
       <c r="F364">
         <v>21.95</v>
@@ -14017,10 +14017,10 @@
         <v>3</v>
       </c>
       <c r="D365" s="2">
-        <v>45740</v>
+        <v>45738</v>
       </c>
       <c r="E365" s="2">
-        <v>45746</v>
+        <v>45741</v>
       </c>
       <c r="F365">
         <v>23.27</v>
@@ -14046,10 +14046,10 @@
         <v>5</v>
       </c>
       <c r="D366" s="2">
-        <v>45743</v>
+        <v>45735</v>
       </c>
       <c r="E366" s="2">
-        <v>45748</v>
+        <v>45741</v>
       </c>
       <c r="F366">
         <v>5.89</v>
@@ -14075,10 +14075,10 @@
         <v>1</v>
       </c>
       <c r="D367" s="2">
-        <v>45740</v>
+        <v>45739</v>
       </c>
       <c r="E367" s="2">
-        <v>45747</v>
+        <v>45749</v>
       </c>
       <c r="F367">
         <v>23.81</v>
@@ -14104,10 +14104,10 @@
         <v>5</v>
       </c>
       <c r="D368" s="2">
-        <v>45742</v>
+        <v>45740</v>
       </c>
       <c r="E368" s="2">
-        <v>45746</v>
+        <v>45748</v>
       </c>
       <c r="F368">
         <v>9.550000000000001</v>
@@ -14133,10 +14133,10 @@
         <v>4</v>
       </c>
       <c r="D369" s="2">
-        <v>45742</v>
+        <v>45739</v>
       </c>
       <c r="E369" s="2">
-        <v>45746</v>
+        <v>45749</v>
       </c>
       <c r="F369">
         <v>11.52</v>
@@ -14162,10 +14162,10 @@
         <v>6</v>
       </c>
       <c r="D370" s="2">
-        <v>45741</v>
+        <v>45735</v>
       </c>
       <c r="E370" s="2">
-        <v>45746</v>
+        <v>45742</v>
       </c>
       <c r="F370">
         <v>14.56</v>
@@ -14191,10 +14191,10 @@
         <v>4</v>
       </c>
       <c r="D371" s="2">
-        <v>45742</v>
+        <v>45735</v>
       </c>
       <c r="E371" s="2">
-        <v>45747</v>
+        <v>45741</v>
       </c>
       <c r="F371">
         <v>15.04</v>
@@ -14220,10 +14220,10 @@
         <v>1</v>
       </c>
       <c r="D372" s="2">
-        <v>45742</v>
+        <v>45735</v>
       </c>
       <c r="E372" s="2">
-        <v>45745</v>
+        <v>45738</v>
       </c>
       <c r="F372">
         <v>23.85</v>
@@ -14249,10 +14249,10 @@
         <v>2</v>
       </c>
       <c r="D373" s="2">
-        <v>45740</v>
+        <v>45735</v>
       </c>
       <c r="E373" s="2">
-        <v>45748</v>
+        <v>45739</v>
       </c>
       <c r="F373">
         <v>4.03</v>
@@ -14278,10 +14278,10 @@
         <v>5</v>
       </c>
       <c r="D374" s="2">
-        <v>45741</v>
+        <v>45737</v>
       </c>
       <c r="E374" s="2">
-        <v>45745</v>
+        <v>45740</v>
       </c>
       <c r="F374">
         <v>7.52</v>
@@ -14307,10 +14307,10 @@
         <v>4</v>
       </c>
       <c r="D375" s="2">
+        <v>45740</v>
+      </c>
+      <c r="E375" s="2">
         <v>45743</v>
-      </c>
-      <c r="E375" s="2">
-        <v>45746</v>
       </c>
       <c r="F375">
         <v>7.04</v>
@@ -14336,10 +14336,10 @@
         <v>6</v>
       </c>
       <c r="D376" s="2">
-        <v>45740</v>
+        <v>45738</v>
       </c>
       <c r="E376" s="2">
-        <v>45747</v>
+        <v>45744</v>
       </c>
       <c r="F376">
         <v>5.92</v>
@@ -14365,10 +14365,10 @@
         <v>5</v>
       </c>
       <c r="D377" s="2">
-        <v>45740</v>
+        <v>45738</v>
       </c>
       <c r="E377" s="2">
-        <v>45746</v>
+        <v>45742</v>
       </c>
       <c r="F377">
         <v>6</v>
@@ -14394,10 +14394,10 @@
         <v>5</v>
       </c>
       <c r="D378" s="2">
-        <v>45743</v>
+        <v>45735</v>
       </c>
       <c r="E378" s="2">
-        <v>45747</v>
+        <v>45742</v>
       </c>
       <c r="F378">
         <v>4.85</v>
@@ -14423,10 +14423,10 @@
         <v>2</v>
       </c>
       <c r="D379" s="2">
-        <v>45742</v>
+        <v>45735</v>
       </c>
       <c r="E379" s="2">
-        <v>45748</v>
+        <v>45745</v>
       </c>
       <c r="F379">
         <v>22.44</v>
@@ -14452,10 +14452,10 @@
         <v>3</v>
       </c>
       <c r="D380" s="2">
-        <v>45740</v>
+        <v>45736</v>
       </c>
       <c r="E380" s="2">
-        <v>45748</v>
+        <v>45741</v>
       </c>
       <c r="F380">
         <v>6</v>
@@ -14481,10 +14481,10 @@
         <v>6</v>
       </c>
       <c r="D381" s="2">
-        <v>45743</v>
+        <v>45740</v>
       </c>
       <c r="E381" s="2">
-        <v>45748</v>
+        <v>45746</v>
       </c>
       <c r="F381">
         <v>5.52</v>
@@ -14510,10 +14510,10 @@
         <v>4</v>
       </c>
       <c r="D382" s="2">
-        <v>45741</v>
+        <v>45735</v>
       </c>
       <c r="E382" s="2">
-        <v>45746</v>
+        <v>45744</v>
       </c>
       <c r="F382">
         <v>15.29</v>
@@ -14539,7 +14539,7 @@
         <v>5</v>
       </c>
       <c r="D383" s="2">
-        <v>45743</v>
+        <v>45738</v>
       </c>
       <c r="E383" s="2">
         <v>45747</v>
@@ -14568,10 +14568,10 @@
         <v>3</v>
       </c>
       <c r="D384" s="2">
-        <v>45742</v>
+        <v>45738</v>
       </c>
       <c r="E384" s="2">
-        <v>45746</v>
+        <v>45741</v>
       </c>
       <c r="F384">
         <v>15.73</v>
@@ -14597,10 +14597,10 @@
         <v>4</v>
       </c>
       <c r="D385" s="2">
-        <v>45743</v>
+        <v>45739</v>
       </c>
       <c r="E385" s="2">
-        <v>45746</v>
+        <v>45749</v>
       </c>
       <c r="F385">
         <v>13.84</v>
@@ -14626,10 +14626,10 @@
         <v>6</v>
       </c>
       <c r="D386" s="2">
-        <v>45743</v>
+        <v>45735</v>
       </c>
       <c r="E386" s="2">
-        <v>45746</v>
+        <v>45744</v>
       </c>
       <c r="F386">
         <v>7.31</v>
@@ -14655,7 +14655,7 @@
         <v>4</v>
       </c>
       <c r="D387" s="2">
-        <v>45742</v>
+        <v>45739</v>
       </c>
       <c r="E387" s="2">
         <v>45745</v>
@@ -14684,10 +14684,10 @@
         <v>3</v>
       </c>
       <c r="D388" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E388" s="2">
-        <v>45748</v>
+        <v>45749</v>
       </c>
       <c r="F388">
         <v>21.8</v>
@@ -14713,10 +14713,10 @@
         <v>4</v>
       </c>
       <c r="D389" s="2">
-        <v>45742</v>
+        <v>45737</v>
       </c>
       <c r="E389" s="2">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="F389">
         <v>23.82</v>
@@ -14742,10 +14742,10 @@
         <v>5</v>
       </c>
       <c r="D390" s="2">
+        <v>45736</v>
+      </c>
+      <c r="E390" s="2">
         <v>45740</v>
-      </c>
-      <c r="E390" s="2">
-        <v>45744</v>
       </c>
       <c r="F390">
         <v>9.43</v>
@@ -14771,7 +14771,7 @@
         <v>2</v>
       </c>
       <c r="D391" s="2">
-        <v>45743</v>
+        <v>45738</v>
       </c>
       <c r="E391" s="2">
         <v>45747</v>
@@ -14800,10 +14800,10 @@
         <v>2</v>
       </c>
       <c r="D392" s="2">
-        <v>45743</v>
+        <v>45738</v>
       </c>
       <c r="E392" s="2">
-        <v>45746</v>
+        <v>45748</v>
       </c>
       <c r="F392">
         <v>22.52</v>
@@ -14829,10 +14829,10 @@
         <v>2</v>
       </c>
       <c r="D393" s="2">
-        <v>45742</v>
+        <v>45738</v>
       </c>
       <c r="E393" s="2">
-        <v>45745</v>
+        <v>45746</v>
       </c>
       <c r="F393">
         <v>13.36</v>
@@ -14861,7 +14861,7 @@
         <v>45740</v>
       </c>
       <c r="E394" s="2">
-        <v>45746</v>
+        <v>45749</v>
       </c>
       <c r="F394">
         <v>9.720000000000001</v>
@@ -14887,10 +14887,10 @@
         <v>2</v>
       </c>
       <c r="D395" s="2">
-        <v>45742</v>
+        <v>45740</v>
       </c>
       <c r="E395" s="2">
-        <v>45744</v>
+        <v>45746</v>
       </c>
       <c r="F395">
         <v>14.33</v>
@@ -14916,10 +14916,10 @@
         <v>4</v>
       </c>
       <c r="D396" s="2">
-        <v>45742</v>
+        <v>45740</v>
       </c>
       <c r="E396" s="2">
-        <v>45745</v>
+        <v>45744</v>
       </c>
       <c r="F396">
         <v>9.85</v>
@@ -14945,10 +14945,10 @@
         <v>3</v>
       </c>
       <c r="D397" s="2">
-        <v>45741</v>
+        <v>45735</v>
       </c>
       <c r="E397" s="2">
-        <v>45747</v>
+        <v>45744</v>
       </c>
       <c r="F397">
         <v>12.01</v>
@@ -14974,10 +14974,10 @@
         <v>1</v>
       </c>
       <c r="D398" s="2">
-        <v>45743</v>
+        <v>45738</v>
       </c>
       <c r="E398" s="2">
-        <v>45748</v>
+        <v>45746</v>
       </c>
       <c r="F398">
         <v>7.83</v>
@@ -15003,10 +15003,10 @@
         <v>5</v>
       </c>
       <c r="D399" s="2">
+        <v>45738</v>
+      </c>
+      <c r="E399" s="2">
         <v>45741</v>
-      </c>
-      <c r="E399" s="2">
-        <v>45748</v>
       </c>
       <c r="F399">
         <v>22.22</v>
@@ -15032,10 +15032,10 @@
         <v>3</v>
       </c>
       <c r="D400" s="2">
-        <v>45742</v>
+        <v>45739</v>
       </c>
       <c r="E400" s="2">
-        <v>45746</v>
+        <v>45744</v>
       </c>
       <c r="F400">
         <v>19.24</v>
@@ -15061,10 +15061,10 @@
         <v>3</v>
       </c>
       <c r="D401" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E401" s="2">
-        <v>45748</v>
+        <v>45747</v>
       </c>
       <c r="F401">
         <v>21.54</v>
@@ -15090,10 +15090,10 @@
         <v>1</v>
       </c>
       <c r="D402" s="2">
-        <v>45742</v>
+        <v>45740</v>
       </c>
       <c r="E402" s="2">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="F402">
         <v>18.68</v>
@@ -15119,10 +15119,10 @@
         <v>2</v>
       </c>
       <c r="D403" s="2">
-        <v>45740</v>
+        <v>45735</v>
       </c>
       <c r="E403" s="2">
-        <v>45744</v>
+        <v>45742</v>
       </c>
       <c r="F403">
         <v>6.83</v>
@@ -15148,10 +15148,10 @@
         <v>4</v>
       </c>
       <c r="D404" s="2">
-        <v>45741</v>
+        <v>45738</v>
       </c>
       <c r="E404" s="2">
-        <v>45748</v>
+        <v>45745</v>
       </c>
       <c r="F404">
         <v>16.73</v>
@@ -15177,10 +15177,10 @@
         <v>2</v>
       </c>
       <c r="D405" s="2">
-        <v>45740</v>
+        <v>45739</v>
       </c>
       <c r="E405" s="2">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="F405">
         <v>15.17</v>
@@ -15206,10 +15206,10 @@
         <v>3</v>
       </c>
       <c r="D406" s="2">
-        <v>45743</v>
+        <v>45735</v>
       </c>
       <c r="E406" s="2">
-        <v>45747</v>
+        <v>45739</v>
       </c>
       <c r="F406">
         <v>11.52</v>
@@ -15235,10 +15235,10 @@
         <v>4</v>
       </c>
       <c r="D407" s="2">
-        <v>45742</v>
+        <v>45738</v>
       </c>
       <c r="E407" s="2">
-        <v>45745</v>
+        <v>45748</v>
       </c>
       <c r="F407">
         <v>20.9</v>
@@ -15264,10 +15264,10 @@
         <v>2</v>
       </c>
       <c r="D408" s="2">
-        <v>45740</v>
+        <v>45737</v>
       </c>
       <c r="E408" s="2">
-        <v>45748</v>
+        <v>45743</v>
       </c>
       <c r="F408">
         <v>7.64</v>
@@ -15293,10 +15293,10 @@
         <v>2</v>
       </c>
       <c r="D409" s="2">
-        <v>45743</v>
+        <v>45735</v>
       </c>
       <c r="E409" s="2">
-        <v>45744</v>
+        <v>45741</v>
       </c>
       <c r="F409">
         <v>24.48</v>
@@ -15322,10 +15322,10 @@
         <v>2</v>
       </c>
       <c r="D410" s="2">
-        <v>45740</v>
+        <v>45739</v>
       </c>
       <c r="E410" s="2">
-        <v>45748</v>
+        <v>45745</v>
       </c>
       <c r="F410">
         <v>20.32</v>
@@ -15351,10 +15351,10 @@
         <v>5</v>
       </c>
       <c r="D411" s="2">
-        <v>45741</v>
+        <v>45739</v>
       </c>
       <c r="E411" s="2">
-        <v>45744</v>
+        <v>45748</v>
       </c>
       <c r="F411">
         <v>10.82</v>
@@ -15380,10 +15380,10 @@
         <v>5</v>
       </c>
       <c r="D412" s="2">
-        <v>45740</v>
+        <v>45736</v>
       </c>
       <c r="E412" s="2">
-        <v>45745</v>
+        <v>45742</v>
       </c>
       <c r="F412">
         <v>9.24</v>
@@ -15412,7 +15412,7 @@
         <v>45740</v>
       </c>
       <c r="E413" s="2">
-        <v>45747</v>
+        <v>45744</v>
       </c>
       <c r="F413">
         <v>20</v>
@@ -15438,10 +15438,10 @@
         <v>5</v>
       </c>
       <c r="D414" s="2">
-        <v>45741</v>
+        <v>45737</v>
       </c>
       <c r="E414" s="2">
-        <v>45746</v>
+        <v>45744</v>
       </c>
       <c r="F414">
         <v>12.38</v>
@@ -15467,10 +15467,10 @@
         <v>1</v>
       </c>
       <c r="D415" s="2">
-        <v>45742</v>
+        <v>45736</v>
       </c>
       <c r="E415" s="2">
-        <v>45747</v>
+        <v>45746</v>
       </c>
       <c r="F415">
         <v>17.84</v>
@@ -15496,10 +15496,10 @@
         <v>4</v>
       </c>
       <c r="D416" s="2">
-        <v>45742</v>
+        <v>45737</v>
       </c>
       <c r="E416" s="2">
-        <v>45746</v>
+        <v>45747</v>
       </c>
       <c r="F416">
         <v>5.32</v>
@@ -15525,10 +15525,10 @@
         <v>3</v>
       </c>
       <c r="D417" s="2">
-        <v>45743</v>
+        <v>45740</v>
       </c>
       <c r="E417" s="2">
-        <v>45748</v>
+        <v>45749</v>
       </c>
       <c r="F417">
         <v>15.01</v>
@@ -15554,10 +15554,10 @@
         <v>5</v>
       </c>
       <c r="D418" s="2">
-        <v>45742</v>
+        <v>45740</v>
       </c>
       <c r="E418" s="2">
-        <v>45747</v>
+        <v>45750</v>
       </c>
       <c r="F418">
         <v>8.619999999999999</v>
@@ -15583,10 +15583,10 @@
         <v>4</v>
       </c>
       <c r="D419" s="2">
-        <v>45742</v>
+        <v>45735</v>
       </c>
       <c r="E419" s="2">
-        <v>45746</v>
+        <v>45744</v>
       </c>
       <c r="F419">
         <v>21.57</v>
@@ -15612,10 +15612,10 @@
         <v>6</v>
       </c>
       <c r="D420" s="2">
-        <v>45743</v>
+        <v>45739</v>
       </c>
       <c r="E420" s="2">
-        <v>45746</v>
+        <v>45748</v>
       </c>
       <c r="F420">
         <v>24.74</v>
@@ -15641,10 +15641,10 @@
         <v>3</v>
       </c>
       <c r="D421" s="2">
-        <v>45740</v>
+        <v>45737</v>
       </c>
       <c r="E421" s="2">
-        <v>45745</v>
+        <v>45747</v>
       </c>
       <c r="F421">
         <v>22.48</v>
@@ -15670,10 +15670,10 @@
         <v>2</v>
       </c>
       <c r="D422" s="2">
-        <v>45740</v>
+        <v>45738</v>
       </c>
       <c r="E422" s="2">
-        <v>45748</v>
+        <v>45743</v>
       </c>
       <c r="F422">
         <v>15.1</v>
@@ -15699,7 +15699,7 @@
         <v>2</v>
       </c>
       <c r="D423" s="2">
-        <v>45743</v>
+        <v>45739</v>
       </c>
       <c r="E423" s="2">
         <v>45747</v>
@@ -15728,10 +15728,10 @@
         <v>3</v>
       </c>
       <c r="D424" s="2">
-        <v>45742</v>
+        <v>45740</v>
       </c>
       <c r="E424" s="2">
-        <v>45744</v>
+        <v>45745</v>
       </c>
       <c r="F424">
         <v>8.609999999999999</v>
@@ -15757,10 +15757,10 @@
         <v>1</v>
       </c>
       <c r="D425" s="2">
-        <v>45742</v>
+        <v>45738</v>
       </c>
       <c r="E425" s="2">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="F425">
         <v>9.99</v>
@@ -15786,10 +15786,10 @@
         <v>4</v>
       </c>
       <c r="D426" s="2">
-        <v>45741</v>
+        <v>45735</v>
       </c>
       <c r="E426" s="2">
-        <v>45748</v>
+        <v>45745</v>
       </c>
       <c r="F426">
         <v>8.52</v>
@@ -15815,7 +15815,7 @@
         <v>4</v>
       </c>
       <c r="D427" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E427" s="2">
         <v>45747</v>
@@ -15844,10 +15844,10 @@
         <v>4</v>
       </c>
       <c r="D428" s="2">
-        <v>45741</v>
+        <v>45736</v>
       </c>
       <c r="E428" s="2">
-        <v>45744</v>
+        <v>45746</v>
       </c>
       <c r="F428">
         <v>6.53</v>
@@ -15873,10 +15873,10 @@
         <v>3</v>
       </c>
       <c r="D429" s="2">
-        <v>45741</v>
+        <v>45738</v>
       </c>
       <c r="E429" s="2">
-        <v>45748</v>
+        <v>45747</v>
       </c>
       <c r="F429">
         <v>23.87</v>
@@ -15902,10 +15902,10 @@
         <v>3</v>
       </c>
       <c r="D430" s="2">
+        <v>45737</v>
+      </c>
+      <c r="E430" s="2">
         <v>45742</v>
-      </c>
-      <c r="E430" s="2">
-        <v>45744</v>
       </c>
       <c r="F430">
         <v>15.83</v>
@@ -15931,7 +15931,7 @@
         <v>3</v>
       </c>
       <c r="D431" s="2">
-        <v>45742</v>
+        <v>45739</v>
       </c>
       <c r="E431" s="2">
         <v>45748</v>
@@ -15960,10 +15960,10 @@
         <v>1</v>
       </c>
       <c r="D432" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E432" s="2">
-        <v>45746</v>
+        <v>45743</v>
       </c>
       <c r="F432">
         <v>5.18</v>
@@ -15989,10 +15989,10 @@
         <v>2</v>
       </c>
       <c r="D433" s="2">
-        <v>45743</v>
+        <v>45740</v>
       </c>
       <c r="E433" s="2">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="F433">
         <v>20.32</v>
@@ -16018,10 +16018,10 @@
         <v>3</v>
       </c>
       <c r="D434" s="2">
-        <v>45742</v>
+        <v>45739</v>
       </c>
       <c r="E434" s="2">
-        <v>45748</v>
+        <v>45745</v>
       </c>
       <c r="F434">
         <v>5.21</v>
@@ -16047,10 +16047,10 @@
         <v>3</v>
       </c>
       <c r="D435" s="2">
-        <v>45740</v>
+        <v>45735</v>
       </c>
       <c r="E435" s="2">
-        <v>45745</v>
+        <v>45742</v>
       </c>
       <c r="F435">
         <v>18.85</v>
@@ -16076,10 +16076,10 @@
         <v>3</v>
       </c>
       <c r="D436" s="2">
-        <v>45743</v>
+        <v>45736</v>
       </c>
       <c r="E436" s="2">
-        <v>45748</v>
+        <v>45739</v>
       </c>
       <c r="F436">
         <v>22.48</v>
@@ -16105,10 +16105,10 @@
         <v>1</v>
       </c>
       <c r="D437" s="2">
-        <v>45741</v>
+        <v>45739</v>
       </c>
       <c r="E437" s="2">
-        <v>45745</v>
+        <v>45746</v>
       </c>
       <c r="F437">
         <v>7.21</v>
@@ -16134,10 +16134,10 @@
         <v>2</v>
       </c>
       <c r="D438" s="2">
+        <v>45739</v>
+      </c>
+      <c r="E438" s="2">
         <v>45743</v>
-      </c>
-      <c r="E438" s="2">
-        <v>45745</v>
       </c>
       <c r="F438">
         <v>10.7</v>
@@ -16163,10 +16163,10 @@
         <v>2</v>
       </c>
       <c r="D439" s="2">
-        <v>45742</v>
+        <v>45740</v>
       </c>
       <c r="E439" s="2">
-        <v>45748</v>
+        <v>45746</v>
       </c>
       <c r="F439">
         <v>20.28</v>
@@ -16192,10 +16192,10 @@
         <v>4</v>
       </c>
       <c r="D440" s="2">
-        <v>45741</v>
+        <v>45736</v>
       </c>
       <c r="E440" s="2">
-        <v>45744</v>
+        <v>45739</v>
       </c>
       <c r="F440">
         <v>24.96</v>
@@ -16221,10 +16221,10 @@
         <v>5</v>
       </c>
       <c r="D441" s="2">
-        <v>45741</v>
+        <v>45739</v>
       </c>
       <c r="E441" s="2">
-        <v>45746</v>
+        <v>45749</v>
       </c>
       <c r="F441">
         <v>16.25</v>
@@ -16250,10 +16250,10 @@
         <v>5</v>
       </c>
       <c r="D442" s="2">
-        <v>45741</v>
+        <v>45739</v>
       </c>
       <c r="E442" s="2">
-        <v>45746</v>
+        <v>45745</v>
       </c>
       <c r="F442">
         <v>4.54</v>
@@ -16279,10 +16279,10 @@
         <v>5</v>
       </c>
       <c r="D443" s="2">
-        <v>45743</v>
+        <v>45739</v>
       </c>
       <c r="E443" s="2">
-        <v>45745</v>
+        <v>45742</v>
       </c>
       <c r="F443">
         <v>10.97</v>
@@ -16308,10 +16308,10 @@
         <v>4</v>
       </c>
       <c r="D444" s="2">
-        <v>45741</v>
+        <v>45738</v>
       </c>
       <c r="E444" s="2">
-        <v>45746</v>
+        <v>45744</v>
       </c>
       <c r="F444">
         <v>17.49</v>
@@ -16337,10 +16337,10 @@
         <v>4</v>
       </c>
       <c r="D445" s="2">
-        <v>45740</v>
+        <v>45735</v>
       </c>
       <c r="E445" s="2">
-        <v>45747</v>
+        <v>45744</v>
       </c>
       <c r="F445">
         <v>12.61</v>
@@ -16366,10 +16366,10 @@
         <v>4</v>
       </c>
       <c r="D446" s="2">
-        <v>45741</v>
+        <v>45736</v>
       </c>
       <c r="E446" s="2">
-        <v>45748</v>
+        <v>45746</v>
       </c>
       <c r="F446">
         <v>13.92</v>
@@ -16395,10 +16395,10 @@
         <v>6</v>
       </c>
       <c r="D447" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E447" s="2">
-        <v>45745</v>
+        <v>45744</v>
       </c>
       <c r="F447">
         <v>11.27</v>
@@ -16424,10 +16424,10 @@
         <v>2</v>
       </c>
       <c r="D448" s="2">
+        <v>45740</v>
+      </c>
+      <c r="E448" s="2">
         <v>45743</v>
-      </c>
-      <c r="E448" s="2">
-        <v>45747</v>
       </c>
       <c r="F448">
         <v>19.19</v>
@@ -16453,10 +16453,10 @@
         <v>2</v>
       </c>
       <c r="D449" s="2">
-        <v>45742</v>
+        <v>45738</v>
       </c>
       <c r="E449" s="2">
-        <v>45745</v>
+        <v>45741</v>
       </c>
       <c r="F449">
         <v>4.13</v>
@@ -16482,10 +16482,10 @@
         <v>5</v>
       </c>
       <c r="D450" s="2">
-        <v>45743</v>
+        <v>45740</v>
       </c>
       <c r="E450" s="2">
-        <v>45747</v>
+        <v>45745</v>
       </c>
       <c r="F450">
         <v>18.08</v>
@@ -16511,10 +16511,10 @@
         <v>4</v>
       </c>
       <c r="D451" s="2">
-        <v>45743</v>
+        <v>45735</v>
       </c>
       <c r="E451" s="2">
-        <v>45744</v>
+        <v>45742</v>
       </c>
       <c r="F451">
         <v>18.44</v>
@@ -16540,10 +16540,10 @@
         <v>6</v>
       </c>
       <c r="D452" s="2">
-        <v>45740</v>
+        <v>45739</v>
       </c>
       <c r="E452" s="2">
-        <v>45748</v>
+        <v>45745</v>
       </c>
       <c r="F452">
         <v>23.43</v>
@@ -16569,10 +16569,10 @@
         <v>3</v>
       </c>
       <c r="D453" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E453" s="2">
-        <v>45744</v>
+        <v>45750</v>
       </c>
       <c r="F453">
         <v>24.1</v>
@@ -16598,10 +16598,10 @@
         <v>1</v>
       </c>
       <c r="D454" s="2">
-        <v>45743</v>
+        <v>45735</v>
       </c>
       <c r="E454" s="2">
-        <v>45744</v>
+        <v>45738</v>
       </c>
       <c r="F454">
         <v>18.72</v>
@@ -16627,10 +16627,10 @@
         <v>4</v>
       </c>
       <c r="D455" s="2">
-        <v>45742</v>
+        <v>45738</v>
       </c>
       <c r="E455" s="2">
-        <v>45746</v>
+        <v>45748</v>
       </c>
       <c r="F455">
         <v>15.5</v>
@@ -16656,10 +16656,10 @@
         <v>5</v>
       </c>
       <c r="D456" s="2">
-        <v>45743</v>
+        <v>45739</v>
       </c>
       <c r="E456" s="2">
-        <v>45747</v>
+        <v>45744</v>
       </c>
       <c r="F456">
         <v>9.73</v>
@@ -16685,10 +16685,10 @@
         <v>5</v>
       </c>
       <c r="D457" s="2">
-        <v>45741</v>
+        <v>45736</v>
       </c>
       <c r="E457" s="2">
-        <v>45744</v>
+        <v>45739</v>
       </c>
       <c r="F457">
         <v>14.44</v>
@@ -16714,10 +16714,10 @@
         <v>4</v>
       </c>
       <c r="D458" s="2">
-        <v>45740</v>
+        <v>45738</v>
       </c>
       <c r="E458" s="2">
-        <v>45746</v>
+        <v>45744</v>
       </c>
       <c r="F458">
         <v>16.09</v>
@@ -16743,10 +16743,10 @@
         <v>3</v>
       </c>
       <c r="D459" s="2">
-        <v>45742</v>
+        <v>45739</v>
       </c>
       <c r="E459" s="2">
-        <v>45746</v>
+        <v>45744</v>
       </c>
       <c r="F459">
         <v>21.45</v>
@@ -16772,10 +16772,10 @@
         <v>5</v>
       </c>
       <c r="D460" s="2">
-        <v>45743</v>
+        <v>45735</v>
       </c>
       <c r="E460" s="2">
-        <v>45746</v>
+        <v>45738</v>
       </c>
       <c r="F460">
         <v>18.46</v>
@@ -16801,10 +16801,10 @@
         <v>4</v>
       </c>
       <c r="D461" s="2">
-        <v>45740</v>
+        <v>45739</v>
       </c>
       <c r="E461" s="2">
-        <v>45744</v>
+        <v>45748</v>
       </c>
       <c r="F461">
         <v>20.91</v>
@@ -16830,10 +16830,10 @@
         <v>1</v>
       </c>
       <c r="D462" s="2">
-        <v>45740</v>
+        <v>45738</v>
       </c>
       <c r="E462" s="2">
-        <v>45748</v>
+        <v>45743</v>
       </c>
       <c r="F462">
         <v>5.84</v>
@@ -16859,10 +16859,10 @@
         <v>3</v>
       </c>
       <c r="D463" s="2">
-        <v>45740</v>
+        <v>45736</v>
       </c>
       <c r="E463" s="2">
-        <v>45745</v>
+        <v>45739</v>
       </c>
       <c r="F463">
         <v>15.32</v>
@@ -16888,10 +16888,10 @@
         <v>1</v>
       </c>
       <c r="D464" s="2">
-        <v>45743</v>
+        <v>45739</v>
       </c>
       <c r="E464" s="2">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="F464">
         <v>13.09</v>
@@ -16917,10 +16917,10 @@
         <v>6</v>
       </c>
       <c r="D465" s="2">
-        <v>45740</v>
+        <v>45738</v>
       </c>
       <c r="E465" s="2">
-        <v>45748</v>
+        <v>45747</v>
       </c>
       <c r="F465">
         <v>18.43</v>
@@ -16946,10 +16946,10 @@
         <v>4</v>
       </c>
       <c r="D466" s="2">
-        <v>45742</v>
+        <v>45738</v>
       </c>
       <c r="E466" s="2">
-        <v>45745</v>
+        <v>45744</v>
       </c>
       <c r="F466">
         <v>23.11</v>
@@ -16975,7 +16975,7 @@
         <v>2</v>
       </c>
       <c r="D467" s="2">
-        <v>45741</v>
+        <v>45739</v>
       </c>
       <c r="E467" s="2">
         <v>45744</v>
@@ -17004,10 +17004,10 @@
         <v>3</v>
       </c>
       <c r="D468" s="2">
-        <v>45742</v>
+        <v>45740</v>
       </c>
       <c r="E468" s="2">
-        <v>45746</v>
+        <v>45748</v>
       </c>
       <c r="F468">
         <v>23.64</v>
@@ -17033,10 +17033,10 @@
         <v>5</v>
       </c>
       <c r="D469" s="2">
-        <v>45743</v>
+        <v>45739</v>
       </c>
       <c r="E469" s="2">
-        <v>45745</v>
+        <v>45742</v>
       </c>
       <c r="F469">
         <v>19.92</v>
@@ -17062,10 +17062,10 @@
         <v>5</v>
       </c>
       <c r="D470" s="2">
-        <v>45740</v>
+        <v>45739</v>
       </c>
       <c r="E470" s="2">
-        <v>45744</v>
+        <v>45746</v>
       </c>
       <c r="F470">
         <v>15.51</v>
@@ -17091,7 +17091,7 @@
         <v>3</v>
       </c>
       <c r="D471" s="2">
-        <v>45742</v>
+        <v>45739</v>
       </c>
       <c r="E471" s="2">
         <v>45747</v>
@@ -17120,10 +17120,10 @@
         <v>1</v>
       </c>
       <c r="D472" s="2">
-        <v>45743</v>
+        <v>45735</v>
       </c>
       <c r="E472" s="2">
-        <v>45747</v>
+        <v>45740</v>
       </c>
       <c r="F472">
         <v>18.23</v>
@@ -17149,10 +17149,10 @@
         <v>3</v>
       </c>
       <c r="D473" s="2">
+        <v>45738</v>
+      </c>
+      <c r="E473" s="2">
         <v>45742</v>
-      </c>
-      <c r="E473" s="2">
-        <v>45747</v>
       </c>
       <c r="F473">
         <v>18.11</v>
@@ -17178,7 +17178,7 @@
         <v>6</v>
       </c>
       <c r="D474" s="2">
-        <v>45742</v>
+        <v>45740</v>
       </c>
       <c r="E474" s="2">
         <v>45747</v>
@@ -17207,7 +17207,7 @@
         <v>2</v>
       </c>
       <c r="D475" s="2">
-        <v>45741</v>
+        <v>45737</v>
       </c>
       <c r="E475" s="2">
         <v>45744</v>
@@ -17236,10 +17236,10 @@
         <v>3</v>
       </c>
       <c r="D476" s="2">
-        <v>45742</v>
+        <v>45740</v>
       </c>
       <c r="E476" s="2">
-        <v>45745</v>
+        <v>45743</v>
       </c>
       <c r="F476">
         <v>9.859999999999999</v>
@@ -17265,10 +17265,10 @@
         <v>4</v>
       </c>
       <c r="D477" s="2">
+        <v>45739</v>
+      </c>
+      <c r="E477" s="2">
         <v>45743</v>
-      </c>
-      <c r="E477" s="2">
-        <v>45747</v>
       </c>
       <c r="F477">
         <v>24.95</v>
@@ -17297,7 +17297,7 @@
         <v>45740</v>
       </c>
       <c r="E478" s="2">
-        <v>45748</v>
+        <v>45743</v>
       </c>
       <c r="F478">
         <v>8.44</v>
@@ -17323,10 +17323,10 @@
         <v>6</v>
       </c>
       <c r="D479" s="2">
-        <v>45743</v>
+        <v>45740</v>
       </c>
       <c r="E479" s="2">
-        <v>45746</v>
+        <v>45745</v>
       </c>
       <c r="F479">
         <v>18.81</v>
@@ -17352,10 +17352,10 @@
         <v>2</v>
       </c>
       <c r="D480" s="2">
-        <v>45742</v>
+        <v>45739</v>
       </c>
       <c r="E480" s="2">
-        <v>45744</v>
+        <v>45749</v>
       </c>
       <c r="F480">
         <v>18.69</v>
@@ -17381,10 +17381,10 @@
         <v>3</v>
       </c>
       <c r="D481" s="2">
-        <v>45742</v>
+        <v>45740</v>
       </c>
       <c r="E481" s="2">
-        <v>45745</v>
+        <v>45750</v>
       </c>
       <c r="F481">
         <v>12.59</v>
@@ -17410,10 +17410,10 @@
         <v>2</v>
       </c>
       <c r="D482" s="2">
+        <v>45735</v>
+      </c>
+      <c r="E482" s="2">
         <v>45740</v>
-      </c>
-      <c r="E482" s="2">
-        <v>45746</v>
       </c>
       <c r="F482">
         <v>7.16</v>
@@ -17439,10 +17439,10 @@
         <v>3</v>
       </c>
       <c r="D483" s="2">
-        <v>45741</v>
+        <v>45739</v>
       </c>
       <c r="E483" s="2">
-        <v>45747</v>
+        <v>45749</v>
       </c>
       <c r="F483">
         <v>10.48</v>
@@ -17468,10 +17468,10 @@
         <v>3</v>
       </c>
       <c r="D484" s="2">
-        <v>45741</v>
+        <v>45740</v>
       </c>
       <c r="E484" s="2">
-        <v>45746</v>
+        <v>45744</v>
       </c>
       <c r="F484">
         <v>23.76</v>
@@ -17497,10 +17497,10 @@
         <v>2</v>
       </c>
       <c r="D485" s="2">
-        <v>45743</v>
+        <v>45736</v>
       </c>
       <c r="E485" s="2">
-        <v>45747</v>
+        <v>45745</v>
       </c>
       <c r="F485">
         <v>10.05</v>
@@ -17526,10 +17526,10 @@
         <v>2</v>
       </c>
       <c r="D486" s="2">
-        <v>45741</v>
+        <v>45739</v>
       </c>
       <c r="E486" s="2">
-        <v>45748</v>
+        <v>45749</v>
       </c>
       <c r="F486">
         <v>22.07</v>
@@ -17555,10 +17555,10 @@
         <v>3</v>
       </c>
       <c r="D487" s="2">
-        <v>45742</v>
+        <v>45740</v>
       </c>
       <c r="E487" s="2">
-        <v>45745</v>
+        <v>45744</v>
       </c>
       <c r="F487">
         <v>16.15</v>
@@ -17584,10 +17584,10 @@
         <v>3</v>
       </c>
       <c r="D488" s="2">
-        <v>45741</v>
+        <v>45737</v>
       </c>
       <c r="E488" s="2">
-        <v>45746</v>
+        <v>45742</v>
       </c>
       <c r="F488">
         <v>21.11</v>
@@ -17613,10 +17613,10 @@
         <v>1</v>
       </c>
       <c r="D489" s="2">
-        <v>45740</v>
+        <v>45739</v>
       </c>
       <c r="E489" s="2">
-        <v>45745</v>
+        <v>45748</v>
       </c>
       <c r="F489">
         <v>13.15</v>
@@ -17642,10 +17642,10 @@
         <v>3</v>
       </c>
       <c r="D490" s="2">
-        <v>45742</v>
+        <v>45735</v>
       </c>
       <c r="E490" s="2">
-        <v>45744</v>
+        <v>45738</v>
       </c>
       <c r="F490">
         <v>13.08</v>
@@ -17671,7 +17671,7 @@
         <v>5</v>
       </c>
       <c r="D491" s="2">
-        <v>45743</v>
+        <v>45736</v>
       </c>
       <c r="E491" s="2">
         <v>45744</v>
@@ -17700,10 +17700,10 @@
         <v>3</v>
       </c>
       <c r="D492" s="2">
-        <v>45740</v>
+        <v>45735</v>
       </c>
       <c r="E492" s="2">
-        <v>45744</v>
+        <v>45743</v>
       </c>
       <c r="F492">
         <v>16.82</v>
@@ -17729,10 +17729,10 @@
         <v>3</v>
       </c>
       <c r="D493" s="2">
-        <v>45743</v>
+        <v>45736</v>
       </c>
       <c r="E493" s="2">
-        <v>45744</v>
+        <v>45739</v>
       </c>
       <c r="F493">
         <v>13.91</v>
@@ -17758,10 +17758,10 @@
         <v>6</v>
       </c>
       <c r="D494" s="2">
+        <v>45736</v>
+      </c>
+      <c r="E494" s="2">
         <v>45742</v>
-      </c>
-      <c r="E494" s="2">
-        <v>45747</v>
       </c>
       <c r="F494">
         <v>15.81</v>
@@ -17787,10 +17787,10 @@
         <v>4</v>
       </c>
       <c r="D495" s="2">
-        <v>45740</v>
+        <v>45735</v>
       </c>
       <c r="E495" s="2">
-        <v>45746</v>
+        <v>45741</v>
       </c>
       <c r="F495">
         <v>4.17</v>
@@ -17816,10 +17816,10 @@
         <v>3</v>
       </c>
       <c r="D496" s="2">
-        <v>45743</v>
+        <v>45740</v>
       </c>
       <c r="E496" s="2">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="F496">
         <v>8.93</v>
@@ -17845,10 +17845,10 @@
         <v>2</v>
       </c>
       <c r="D497" s="2">
-        <v>45742</v>
+        <v>45738</v>
       </c>
       <c r="E497" s="2">
-        <v>45748</v>
+        <v>45745</v>
       </c>
       <c r="F497">
         <v>23.58</v>
@@ -17874,10 +17874,10 @@
         <v>4</v>
       </c>
       <c r="D498" s="2">
-        <v>45743</v>
+        <v>45736</v>
       </c>
       <c r="E498" s="2">
-        <v>45745</v>
+        <v>45744</v>
       </c>
       <c r="F498">
         <v>11.82</v>
@@ -17903,10 +17903,10 @@
         <v>2</v>
       </c>
       <c r="D499" s="2">
-        <v>45741</v>
+        <v>45739</v>
       </c>
       <c r="E499" s="2">
-        <v>45744</v>
+        <v>45742</v>
       </c>
       <c r="F499">
         <v>9.449999999999999</v>
@@ -17932,10 +17932,10 @@
         <v>1</v>
       </c>
       <c r="D500" s="2">
-        <v>45743</v>
+        <v>45739</v>
       </c>
       <c r="E500" s="2">
-        <v>45747</v>
+        <v>45745</v>
       </c>
       <c r="F500">
         <v>12.23</v>
@@ -17961,10 +17961,10 @@
         <v>2</v>
       </c>
       <c r="D501" s="2">
-        <v>45743</v>
+        <v>45736</v>
       </c>
       <c r="E501" s="2">
-        <v>45744</v>
+        <v>45741</v>
       </c>
       <c r="F501">
         <v>22.21</v>
